--- a/ownership-rate-hhsize/data/ownership-rate-by-re-hhsize.xlsx
+++ b/ownership-rate-hhsize/data/ownership-rate-by-re-hhsize.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Region</t>
   </si>
   <si>
-    <t xml:space="preserve">American Indian or Alaskan Native alone</t>
+    <t xml:space="preserve">American Indian or Alaskan Native</t>
   </si>
   <si>
     <t xml:space="preserve">detail</t>
@@ -94,46 +94,46 @@
     <t xml:space="preserve">single-person</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian alone</t>
+    <t xml:space="preserve">Asian</t>
   </si>
   <si>
     <t xml:space="preserve">good</t>
   </si>
   <si>
-    <t xml:space="preserve">Black or African American alone</t>
+    <t xml:space="preserve">Black or African American</t>
   </si>
   <si>
     <t xml:space="preserve">Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone</t>
+    <t xml:space="preserve">Native Hawaiian or Pacific Islander</t>
   </si>
   <si>
     <t xml:space="preserve">weak</t>
   </si>
   <si>
-    <t xml:space="preserve">Some Other Race alone</t>
+    <t xml:space="preserve">Some Other Race</t>
   </si>
   <si>
     <t xml:space="preserve">Two or More Races</t>
   </si>
   <si>
-    <t xml:space="preserve">White alone</t>
+    <t xml:space="preserve">White</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace PSRC</t>
+    <t xml:space="preserve">Multirace PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race PSRC</t>
+    <t xml:space="preserve">Single race PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race Harvard</t>
+    <t xml:space="preserve">Single race Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">Total People of color</t>
+    <t xml:space="preserve">People of color</t>
   </si>
   <si>
     <t xml:space="preserve">King</t>
@@ -154,31 +154,31 @@
     <t xml:space="preserve">multi-person</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian</t>
+    <t xml:space="preserve">MNAW</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian, white</t>
+    <t xml:space="preserve">Multirace incl. Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. white</t>
+    <t xml:space="preserve">Multirace incl. Asian, white</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not Asian or white</t>
+    <t xml:space="preserve">Multirace incl. white</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace Harvard</t>
+    <t xml:space="preserve">Multirace Harvard</t>
   </si>
   <si>
     <t xml:space="preserve">dichot</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not white</t>
+    <t xml:space="preserve">MNW</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple Races</t>
+    <t xml:space="preserve">Multirace</t>
   </si>
 </sst>
 </file>
@@ -5189,31 +5189,31 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>13972</v>
+        <v>10477</v>
       </c>
       <c r="G11" t="n">
-        <v>15596</v>
+        <v>11683</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.604351399281976</v>
+        <v>0.446666098226467</v>
       </c>
       <c r="J11" t="n">
-        <v>0.609171158503242</v>
+        <v>0.420403022670025</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>1068.3468932257</v>
+        <v>1064.65703893437</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.30966385707</v>
+        <v>1094.40101879921</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.0315685219912864</v>
+        <v>0.0346965442905105</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0285285953578565</v>
+        <v>0.0323866693668837</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -5241,31 +5241,31 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>44421</v>
+        <v>13972</v>
       </c>
       <c r="G12" t="n">
-        <v>46176</v>
+        <v>15596</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.722398399765819</v>
+        <v>0.604351399281976</v>
       </c>
       <c r="J12" t="n">
-        <v>0.726803393512033</v>
+        <v>0.609171158503242</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>1786.35839856291</v>
+        <v>1068.3468932257</v>
       </c>
       <c r="M12" t="n">
-        <v>1803.61355079428</v>
+        <v>1142.30966385707</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.0188298659302052</v>
+        <v>0.0315685219912864</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0175137776059748</v>
+        <v>0.0285285953578565</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -5293,31 +5293,31 @@
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>103745</v>
+        <v>44421</v>
       </c>
       <c r="G13" t="n">
-        <v>114796</v>
+        <v>46176</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>0.635034798523588</v>
+        <v>0.722398399765819</v>
       </c>
       <c r="J13" t="n">
-        <v>0.626927130834639</v>
+        <v>0.726803393512033</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>3185.33156944316</v>
+        <v>1786.35839856291</v>
       </c>
       <c r="M13" t="n">
-        <v>3339.30291863362</v>
+        <v>1803.61355079428</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.0127117083843686</v>
+        <v>0.0188298659302052</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0123166870756028</v>
+        <v>0.0175137776059748</v>
       </c>
       <c r="Q13"/>
       <c r="R13" t="s">
@@ -5345,31 +5345,31 @@
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
-        <v>10477</v>
+        <v>103745</v>
       </c>
       <c r="G14" t="n">
-        <v>11683</v>
+        <v>114796</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>0.446666098226467</v>
+        <v>0.635034798523588</v>
       </c>
       <c r="J14" t="n">
-        <v>0.420403022670025</v>
+        <v>0.626927130834639</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>1064.65703893437</v>
+        <v>3185.33156944316</v>
       </c>
       <c r="M14" t="n">
-        <v>1094.40101879921</v>
+        <v>3339.30291863362</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.0346965442905105</v>
+        <v>0.0127117083843686</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0323866693668837</v>
+        <v>0.0123166870756028</v>
       </c>
       <c r="Q14"/>
       <c r="R14" t="s">
@@ -6255,31 +6255,31 @@
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
-        <v>7666</v>
+        <v>4656</v>
       </c>
       <c r="G29" t="n">
-        <v>8749</v>
+        <v>5120</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="n">
-        <v>0.566467154363408</v>
+        <v>0.402003108271456</v>
       </c>
       <c r="J29" t="n">
-        <v>0.581097236981934</v>
+        <v>0.37347727770078</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>858.749794613513</v>
+        <v>632.787583347485</v>
       </c>
       <c r="M29" t="n">
-        <v>928.327442655607</v>
+        <v>670.335077909735</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>0.0438673202832475</v>
+        <v>0.0543405419322603</v>
       </c>
       <c r="P29" t="n">
-        <v>0.041504622251493</v>
+        <v>0.051021618622519</v>
       </c>
       <c r="Q29"/>
       <c r="R29" t="s">
@@ -6307,31 +6307,31 @@
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>26737</v>
+        <v>7666</v>
       </c>
       <c r="G30" t="n">
-        <v>27538</v>
+        <v>8749</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="n">
-        <v>0.68079851297329</v>
+        <v>0.566467154363408</v>
       </c>
       <c r="J30" t="n">
-        <v>0.684275916906868</v>
+        <v>0.581097236981934</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>1318.94295575709</v>
+        <v>858.749794613513</v>
       </c>
       <c r="M30" t="n">
-        <v>1357.66953530029</v>
+        <v>928.327442655607</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.0246179144730839</v>
+        <v>0.0438673202832475</v>
       </c>
       <c r="P30" t="n">
-        <v>0.023457571977104</v>
+        <v>0.041504622251493</v>
       </c>
       <c r="Q30"/>
       <c r="R30" t="s">
@@ -6359,31 +6359,31 @@
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
-        <v>45254</v>
+        <v>26737</v>
       </c>
       <c r="G31" t="n">
-        <v>49467</v>
+        <v>27538</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="n">
-        <v>0.586184116786052</v>
+        <v>0.68079851297329</v>
       </c>
       <c r="J31" t="n">
-        <v>0.584474508182194</v>
+        <v>0.684275916906868</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>1994.28425512827</v>
+        <v>1318.94295575709</v>
       </c>
       <c r="M31" t="n">
-        <v>2100.50126652426</v>
+        <v>1357.66953530029</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.0188157743667248</v>
+        <v>0.0246179144730839</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0176542334654063</v>
+        <v>0.023457571977104</v>
       </c>
       <c r="Q31"/>
       <c r="R31" t="s">
@@ -6411,31 +6411,31 @@
       </c>
       <c r="E32"/>
       <c r="F32" t="n">
-        <v>4656</v>
+        <v>45254</v>
       </c>
       <c r="G32" t="n">
-        <v>5120</v>
+        <v>49467</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="n">
-        <v>0.402003108271456</v>
+        <v>0.586184116786052</v>
       </c>
       <c r="J32" t="n">
-        <v>0.37347727770078</v>
+        <v>0.584474508182194</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>632.787583347485</v>
+        <v>1994.28425512827</v>
       </c>
       <c r="M32" t="n">
-        <v>670.335077909735</v>
+        <v>2100.50126652426</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>0.0543405419322603</v>
+        <v>0.0188157743667248</v>
       </c>
       <c r="P32" t="n">
-        <v>0.051021618622519</v>
+        <v>0.0176542334654063</v>
       </c>
       <c r="Q32"/>
       <c r="R32" t="s">
@@ -7321,31 +7321,31 @@
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>504</v>
+        <v>648</v>
       </c>
       <c r="G47" t="n">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="n">
-        <v>0.609431680773882</v>
+        <v>0.374133949191686</v>
       </c>
       <c r="J47" t="n">
-        <v>0.647120418848168</v>
+        <v>0.352278820375335</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>161.698563251193</v>
+        <v>197.144516963445</v>
       </c>
       <c r="M47" t="n">
-        <v>181.973733633456</v>
+        <v>196.631178863501</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.141283767149141</v>
+        <v>0.102877942826686</v>
       </c>
       <c r="P47" t="n">
-        <v>0.129834215880133</v>
+        <v>0.099943556865988</v>
       </c>
       <c r="Q47"/>
       <c r="R47" t="s">
@@ -7373,38 +7373,38 @@
       </c>
       <c r="E48"/>
       <c r="F48" t="n">
-        <v>2968</v>
+        <v>504</v>
       </c>
       <c r="G48" t="n">
-        <v>3027</v>
+        <v>618</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="n">
-        <v>0.834880450070324</v>
+        <v>0.609431680773882</v>
       </c>
       <c r="J48" t="n">
-        <v>0.837576092971776</v>
+        <v>0.647120418848168</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>523.929271968078</v>
+        <v>161.698563251193</v>
       </c>
       <c r="M48" t="n">
-        <v>525.725503417658</v>
+        <v>181.973733633456</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.0600551876947096</v>
+        <v>0.141283767149141</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0591642615070534</v>
+        <v>0.129834215880133</v>
       </c>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T48" t="s">
         <v>44</v>
@@ -7425,31 +7425,31 @@
       </c>
       <c r="E49"/>
       <c r="F49" t="n">
-        <v>8515</v>
+        <v>2968</v>
       </c>
       <c r="G49" t="n">
-        <v>9595</v>
+        <v>3027</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="n">
-        <v>0.681363527246539</v>
+        <v>0.834880450070324</v>
       </c>
       <c r="J49" t="n">
-        <v>0.668222021032105</v>
+        <v>0.837576092971776</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>735.432201509765</v>
+        <v>523.929271968078</v>
       </c>
       <c r="M49" t="n">
-        <v>776.316353767103</v>
+        <v>525.725503417658</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.040151419122855</v>
+        <v>0.0600551876947096</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0377222647256608</v>
+        <v>0.0591642615070534</v>
       </c>
       <c r="Q49"/>
       <c r="R49" t="s">
@@ -7477,38 +7477,38 @@
       </c>
       <c r="E50"/>
       <c r="F50" t="n">
-        <v>648</v>
+        <v>8515</v>
       </c>
       <c r="G50" t="n">
-        <v>657</v>
+        <v>9595</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="n">
-        <v>0.374133949191686</v>
+        <v>0.681363527246539</v>
       </c>
       <c r="J50" t="n">
-        <v>0.352278820375335</v>
+        <v>0.668222021032105</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>197.144516963445</v>
+        <v>735.432201509765</v>
       </c>
       <c r="M50" t="n">
-        <v>196.631178863501</v>
+        <v>776.316353767103</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="n">
-        <v>0.102877942826686</v>
+        <v>0.040151419122855</v>
       </c>
       <c r="P50" t="n">
-        <v>0.099943556865988</v>
+        <v>0.0377222647256608</v>
       </c>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T50" t="s">
         <v>44</v>
@@ -8387,31 +8387,31 @@
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>3370</v>
+        <v>3816</v>
       </c>
       <c r="G65" t="n">
-        <v>3615</v>
+        <v>4334</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="n">
-        <v>0.64509954058193</v>
+        <v>0.531994981179423</v>
       </c>
       <c r="J65" t="n">
-        <v>0.622096024780589</v>
+        <v>0.496505899873983</v>
       </c>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>486.088175460482</v>
+        <v>730.175643145196</v>
       </c>
       <c r="M65" t="n">
-        <v>497.215230262509</v>
+        <v>733.935604669272</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>0.0712422612573767</v>
+        <v>0.07019852353216</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0654447160060862</v>
+        <v>0.0597673609065604</v>
       </c>
       <c r="Q65"/>
       <c r="R65" t="s">
@@ -8439,31 +8439,31 @@
       </c>
       <c r="E66"/>
       <c r="F66" t="n">
-        <v>7363</v>
+        <v>3370</v>
       </c>
       <c r="G66" t="n">
-        <v>7728</v>
+        <v>3615</v>
       </c>
       <c r="H66"/>
       <c r="I66" t="n">
-        <v>0.758759274525969</v>
+        <v>0.64509954058193</v>
       </c>
       <c r="J66" t="n">
-        <v>0.764997030291031</v>
+        <v>0.622096024780589</v>
       </c>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>722.108346442901</v>
+        <v>486.088175460482</v>
       </c>
       <c r="M66" t="n">
-        <v>770.140442510326</v>
+        <v>497.215230262509</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>0.0524766273781432</v>
+        <v>0.0712422612573767</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0512363326372591</v>
+        <v>0.0654447160060862</v>
       </c>
       <c r="Q66"/>
       <c r="R66" t="s">
@@ -8491,31 +8491,31 @@
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>28809</v>
+        <v>7363</v>
       </c>
       <c r="G67" t="n">
-        <v>32197</v>
+        <v>7728</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>0.669883272101567</v>
+        <v>0.758759274525969</v>
       </c>
       <c r="J67" t="n">
-        <v>0.658371503353509</v>
+        <v>0.764997030291031</v>
       </c>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>1289.23368504948</v>
+        <v>722.108346442901</v>
       </c>
       <c r="M67" t="n">
-        <v>1393.86121937946</v>
+        <v>770.140442510326</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>0.0219340958081491</v>
+        <v>0.0524766273781432</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0215379225275967</v>
+        <v>0.0512363326372591</v>
       </c>
       <c r="Q67"/>
       <c r="R67" t="s">
@@ -8543,31 +8543,31 @@
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
-        <v>3816</v>
+        <v>28809</v>
       </c>
       <c r="G68" t="n">
-        <v>4334</v>
+        <v>32197</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>0.531994981179423</v>
+        <v>0.669883272101567</v>
       </c>
       <c r="J68" t="n">
-        <v>0.496505899873983</v>
+        <v>0.658371503353509</v>
       </c>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>730.175643145196</v>
+        <v>1289.23368504948</v>
       </c>
       <c r="M68" t="n">
-        <v>733.935604669272</v>
+        <v>1393.86121937946</v>
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>0.07019852353216</v>
+        <v>0.0219340958081491</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0597673609065604</v>
+        <v>0.0215379225275967</v>
       </c>
       <c r="Q68"/>
       <c r="R68" t="s">
@@ -9453,31 +9453,31 @@
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>2432</v>
+        <v>1357</v>
       </c>
       <c r="G83" t="n">
-        <v>2614</v>
+        <v>1572</v>
       </c>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>0.687977369165488</v>
+        <v>0.457056247894914</v>
       </c>
       <c r="J83" t="n">
-        <v>0.691534391534392</v>
+        <v>0.450817321479782</v>
       </c>
       <c r="K83"/>
       <c r="L83" t="n">
-        <v>391.677747151597</v>
+        <v>311.283815516483</v>
       </c>
       <c r="M83" t="n">
-        <v>402.444635703161</v>
+        <v>352.713472027934</v>
       </c>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>0.0767110124360402</v>
+        <v>0.0953887538322556</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0743627692865157</v>
+        <v>0.0883245661055159</v>
       </c>
       <c r="Q83"/>
       <c r="R83" t="s">
@@ -9505,31 +9505,31 @@
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>7353</v>
+        <v>2432</v>
       </c>
       <c r="G84" t="n">
-        <v>7883</v>
+        <v>2614</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>0.82073892175466</v>
+        <v>0.687977369165488</v>
       </c>
       <c r="J84" t="n">
-        <v>0.823461819701243</v>
+        <v>0.691534391534392</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>750.004552519516</v>
+        <v>391.677747151597</v>
       </c>
       <c r="M84" t="n">
-        <v>792.229164965858</v>
+        <v>402.444635703161</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>0.038345665678746</v>
+        <v>0.0767110124360402</v>
       </c>
       <c r="P84" t="n">
-        <v>0.03738176549344</v>
+        <v>0.0743627692865157</v>
       </c>
       <c r="Q84"/>
       <c r="R84" t="s">
@@ -9557,31 +9557,31 @@
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>21167</v>
+        <v>7353</v>
       </c>
       <c r="G85" t="n">
-        <v>23537</v>
+        <v>7883</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>0.690265775313876</v>
+        <v>0.82073892175466</v>
       </c>
       <c r="J85" t="n">
-        <v>0.66845588026469</v>
+        <v>0.823461819701243</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="n">
-        <v>1163.54746721825</v>
+        <v>750.004552519516</v>
       </c>
       <c r="M85" t="n">
-        <v>1279.93754457639</v>
+        <v>792.229164965858</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>0.0279240792112708</v>
+        <v>0.038345665678746</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0244737045498222</v>
+        <v>0.03738176549344</v>
       </c>
       <c r="Q85"/>
       <c r="R85" t="s">
@@ -9609,31 +9609,31 @@
       </c>
       <c r="E86"/>
       <c r="F86" t="n">
-        <v>1357</v>
+        <v>21167</v>
       </c>
       <c r="G86" t="n">
-        <v>1572</v>
+        <v>23537</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>0.457056247894914</v>
+        <v>0.690265775313876</v>
       </c>
       <c r="J86" t="n">
-        <v>0.450817321479782</v>
+        <v>0.66845588026469</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>311.283815516483</v>
+        <v>1163.54746721825</v>
       </c>
       <c r="M86" t="n">
-        <v>352.713472027934</v>
+        <v>1279.93754457639</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>0.0953887538322556</v>
+        <v>0.0279240792112708</v>
       </c>
       <c r="P86" t="n">
-        <v>0.0883245661055159</v>
+        <v>0.0244737045498222</v>
       </c>
       <c r="Q86"/>
       <c r="R86" t="s">
@@ -14632,38 +14632,38 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>148166</v>
+        <v>24449</v>
       </c>
       <c r="G11" t="n">
-        <v>160972</v>
+        <v>27279</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.658925553677844</v>
+        <v>0.524938271604938</v>
       </c>
       <c r="J11" t="n">
-        <v>0.652654454634653</v>
+        <v>0.510919238837279</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>3823.40580761185</v>
+        <v>1388.41712894666</v>
       </c>
       <c r="M11" t="n">
-        <v>4052.37436437964</v>
+        <v>1612.84964356105</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.0114449632085157</v>
+        <v>0.023210589240122</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0109241531840316</v>
+        <v>0.0227267115378057</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -14684,38 +14684,38 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>24449</v>
+        <v>148166</v>
       </c>
       <c r="G12" t="n">
-        <v>27279</v>
+        <v>160972</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.524938271604938</v>
+        <v>0.658925553677844</v>
       </c>
       <c r="J12" t="n">
-        <v>0.510919238837279</v>
+        <v>0.652654454634653</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>1388.41712894666</v>
+        <v>3823.40580761185</v>
       </c>
       <c r="M12" t="n">
-        <v>1612.84964356105</v>
+        <v>4052.37436437964</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.023210589240122</v>
+        <v>0.0114449632085157</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0227267115378057</v>
+        <v>0.0109241531840316</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -15594,38 +15594,38 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
-        <v>71991</v>
+        <v>12322</v>
       </c>
       <c r="G27" t="n">
-        <v>77005</v>
+        <v>13869</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="n">
-        <v>0.618086439892165</v>
+        <v>0.490623133585507</v>
       </c>
       <c r="J27" t="n">
-        <v>0.616636904523579</v>
+        <v>0.482148444289936</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>2437.93659123833</v>
+        <v>953.507048505673</v>
       </c>
       <c r="M27" t="n">
-        <v>2604.7269407603</v>
+        <v>1075.61171351992</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>0.0155289782052378</v>
+        <v>0.032759640243789</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0143730173722226</v>
+        <v>0.0340526388540633</v>
       </c>
       <c r="Q27"/>
       <c r="R27" t="s">
@@ -15646,38 +15646,38 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
-        <v>12322</v>
+        <v>71991</v>
       </c>
       <c r="G28" t="n">
-        <v>13869</v>
+        <v>77005</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>0.490623133585507</v>
+        <v>0.618086439892165</v>
       </c>
       <c r="J28" t="n">
-        <v>0.482148444289936</v>
+        <v>0.616636904523579</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>953.507048505673</v>
+        <v>2437.93659123833</v>
       </c>
       <c r="M28" t="n">
-        <v>1075.61171351992</v>
+        <v>2604.7269407603</v>
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>0.032759640243789</v>
+        <v>0.0155289782052378</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0340526388540633</v>
+        <v>0.0143730173722226</v>
       </c>
       <c r="Q28"/>
       <c r="R28" t="s">
@@ -16556,38 +16556,38 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="n">
-        <v>11483</v>
+        <v>1152</v>
       </c>
       <c r="G43" t="n">
-        <v>12622</v>
+        <v>1275</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>0.715362571642163</v>
+        <v>0.450175849941383</v>
       </c>
       <c r="J43" t="n">
-        <v>0.702275635675736</v>
+        <v>0.452127659574468</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>864.874296400928</v>
+        <v>247.323165142794</v>
       </c>
       <c r="M43" t="n">
-        <v>851.158194769045</v>
+        <v>258.711749750084</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.0332561989326599</v>
+        <v>0.0868024062370842</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0311987614724177</v>
+        <v>0.0864185452800276</v>
       </c>
       <c r="Q43"/>
       <c r="R43" t="s">
@@ -16608,38 +16608,38 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
-        <v>1152</v>
+        <v>11483</v>
       </c>
       <c r="G44" t="n">
-        <v>1275</v>
+        <v>12622</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="n">
-        <v>0.450175849941383</v>
+        <v>0.715362571642163</v>
       </c>
       <c r="J44" t="n">
-        <v>0.452127659574468</v>
+        <v>0.702275635675736</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>247.323165142794</v>
+        <v>864.874296400928</v>
       </c>
       <c r="M44" t="n">
-        <v>258.711749750084</v>
+        <v>851.158194769045</v>
       </c>
       <c r="N44"/>
       <c r="O44" t="n">
-        <v>0.0868024062370842</v>
+        <v>0.0332561989326599</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0864185452800276</v>
+        <v>0.0311987614724177</v>
       </c>
       <c r="Q44"/>
       <c r="R44" t="s">
@@ -17518,38 +17518,38 @@
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
         <v>50</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>36172</v>
+        <v>7186</v>
       </c>
       <c r="G59" t="n">
-        <v>39925</v>
+        <v>7949</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="n">
-        <v>0.686245494213622</v>
+        <v>0.579656368476244</v>
       </c>
       <c r="J59" t="n">
-        <v>0.676626105819747</v>
+        <v>0.546698762035763</v>
       </c>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>1508.09761079522</v>
+        <v>835.296920139779</v>
       </c>
       <c r="M59" t="n">
-        <v>1595.23038503221</v>
+        <v>848.412398016878</v>
       </c>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>0.0214697141296225</v>
+        <v>0.0490734738141149</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0204485645550855</v>
+        <v>0.0441927448472436</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
@@ -17570,38 +17570,38 @@
         <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
         <v>50</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="n">
-        <v>7186</v>
+        <v>36172</v>
       </c>
       <c r="G60" t="n">
-        <v>7949</v>
+        <v>39925</v>
       </c>
       <c r="H60"/>
       <c r="I60" t="n">
-        <v>0.579656368476244</v>
+        <v>0.686245494213622</v>
       </c>
       <c r="J60" t="n">
-        <v>0.546698762035763</v>
+        <v>0.676626105819747</v>
       </c>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>835.296920139779</v>
+        <v>1508.09761079522</v>
       </c>
       <c r="M60" t="n">
-        <v>848.412398016878</v>
+        <v>1595.23038503221</v>
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>0.0490734738141149</v>
+        <v>0.0214697141296225</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0441927448472436</v>
+        <v>0.0204485645550855</v>
       </c>
       <c r="Q60"/>
       <c r="R60" t="s">
@@ -18480,38 +18480,38 @@
         <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
         <v>50</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>28520</v>
+        <v>3789</v>
       </c>
       <c r="G75" t="n">
-        <v>31420</v>
+        <v>4186</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>0.719765798505956</v>
+        <v>0.582564575645756</v>
       </c>
       <c r="J75" t="n">
-        <v>0.701589853519114</v>
+        <v>0.57602862254025</v>
       </c>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>1491.74020347043</v>
+        <v>505.071393024046</v>
       </c>
       <c r="M75" t="n">
-        <v>1686.19645568102</v>
+        <v>561.655975752729</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>0.0246477713919709</v>
+        <v>0.0636070345002761</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0219708181945032</v>
+        <v>0.0620669383785101</v>
       </c>
       <c r="Q75"/>
       <c r="R75" t="s">
@@ -18532,38 +18532,38 @@
         <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
         <v>50</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
-        <v>3789</v>
+        <v>28520</v>
       </c>
       <c r="G76" t="n">
-        <v>4186</v>
+        <v>31420</v>
       </c>
       <c r="H76"/>
       <c r="I76" t="n">
-        <v>0.582564575645756</v>
+        <v>0.719765798505956</v>
       </c>
       <c r="J76" t="n">
-        <v>0.57602862254025</v>
+        <v>0.701589853519114</v>
       </c>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>505.071393024046</v>
+        <v>1491.74020347043</v>
       </c>
       <c r="M76" t="n">
-        <v>561.655975752729</v>
+        <v>1686.19645568102</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>0.0636070345002761</v>
+        <v>0.0246477713919709</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0620669383785101</v>
+        <v>0.0219708181945032</v>
       </c>
       <c r="Q76"/>
       <c r="R76" t="s">

--- a/ownership-rate-hhsize/data/ownership-rate-by-re-hhsize.xlsx
+++ b/ownership-rate-hhsize/data/ownership-rate-by-re-hhsize.xlsx
@@ -115,13 +115,13 @@
     <t xml:space="preserve">Some Other Race</t>
   </si>
   <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two or More Races</t>
   </si>
   <si>
     <t xml:space="preserve">White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Multirace PSRC</t>
@@ -958,40 +958,40 @@
         <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>9712</v>
+        <v>202528</v>
       </c>
       <c r="F8" t="n">
-        <v>9712</v>
+        <v>202515</v>
       </c>
       <c r="G8" t="n">
-        <v>9712</v>
+        <v>202528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.350120768592956</v>
+        <v>0.433041756559408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.350120768592956</v>
+        <v>0.43352192816271</v>
       </c>
       <c r="J8" t="n">
-        <v>0.350120768592956</v>
+        <v>0.433041756559408</v>
       </c>
       <c r="K8" t="n">
-        <v>1124.42813530868</v>
+        <v>4300.24954274095</v>
       </c>
       <c r="L8" t="n">
-        <v>1124.42813530868</v>
+        <v>4303.22003176125</v>
       </c>
       <c r="M8" t="n">
-        <v>1124.42813530868</v>
+        <v>4300.24954274095</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0315349414690478</v>
+        <v>0.00772240635196667</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0315349414690478</v>
+        <v>0.00775590540378138</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0315349414690478</v>
+        <v>0.00772240635196667</v>
       </c>
       <c r="Q8" t="s">
         <v>26</v>
@@ -1020,40 +1020,40 @@
         <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>154977</v>
+        <v>9712</v>
       </c>
       <c r="F9" t="n">
-        <v>154977</v>
+        <v>9712</v>
       </c>
       <c r="G9" t="n">
-        <v>154977</v>
+        <v>9712</v>
       </c>
       <c r="H9" t="n">
-        <v>0.489090094297941</v>
+        <v>0.350120768592956</v>
       </c>
       <c r="I9" t="n">
-        <v>0.489616999497673</v>
+        <v>0.350120768592956</v>
       </c>
       <c r="J9" t="n">
-        <v>0.489090094297941</v>
+        <v>0.350120768592956</v>
       </c>
       <c r="K9" t="n">
-        <v>3482.89617388622</v>
+        <v>1124.42813530868</v>
       </c>
       <c r="L9" t="n">
-        <v>3482.89617388622</v>
+        <v>1124.42813530868</v>
       </c>
       <c r="M9" t="n">
-        <v>3482.89617388622</v>
+        <v>1124.42813530868</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00947604204677427</v>
+        <v>0.0315349414690478</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00944995730647364</v>
+        <v>0.0315349414690478</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00947604204677427</v>
+        <v>0.0315349414690478</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
@@ -1082,40 +1082,40 @@
         <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>202528</v>
+        <v>154977</v>
       </c>
       <c r="F10" t="n">
-        <v>202515</v>
+        <v>154977</v>
       </c>
       <c r="G10" t="n">
-        <v>202528</v>
+        <v>154977</v>
       </c>
       <c r="H10" t="n">
-        <v>0.433041756559408</v>
+        <v>0.489090094297941</v>
       </c>
       <c r="I10" t="n">
-        <v>0.43352192816271</v>
+        <v>0.489616999497673</v>
       </c>
       <c r="J10" t="n">
-        <v>0.433041756559408</v>
+        <v>0.489090094297941</v>
       </c>
       <c r="K10" t="n">
-        <v>4300.24954274095</v>
+        <v>3482.89617388622</v>
       </c>
       <c r="L10" t="n">
-        <v>4303.22003176125</v>
+        <v>3482.89617388622</v>
       </c>
       <c r="M10" t="n">
-        <v>4300.24954274095</v>
+        <v>3482.89617388622</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00772240635196667</v>
+        <v>0.00947604204677427</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00775590540378138</v>
+        <v>0.00944995730647364</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00772240635196667</v>
+        <v>0.00947604204677427</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -1764,40 +1764,40 @@
         <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>4815</v>
+        <v>105164</v>
       </c>
       <c r="F21" t="n">
-        <v>4815</v>
+        <v>105164</v>
       </c>
       <c r="G21" t="n">
-        <v>4815</v>
+        <v>105164</v>
       </c>
       <c r="H21" t="n">
-        <v>0.274327711941659</v>
+        <v>0.368797211331421</v>
       </c>
       <c r="I21" t="n">
-        <v>0.274327711941659</v>
+        <v>0.369149332004128</v>
       </c>
       <c r="J21" t="n">
-        <v>0.274327711941659</v>
+        <v>0.368797211331421</v>
       </c>
       <c r="K21" t="n">
-        <v>786.763276778664</v>
+        <v>2892.17853986402</v>
       </c>
       <c r="L21" t="n">
-        <v>786.763276778664</v>
+        <v>2892.17853986402</v>
       </c>
       <c r="M21" t="n">
-        <v>786.763276778664</v>
+        <v>2892.17853986402</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0355531673900154</v>
+        <v>0.00963467645794475</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0355531673900154</v>
+        <v>0.00965772791480091</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0355531673900154</v>
+        <v>0.00963467645794475</v>
       </c>
       <c r="Q21" t="s">
         <v>26</v>
@@ -1826,40 +1826,40 @@
         <v>22</v>
       </c>
       <c r="E22" t="n">
-        <v>76180</v>
+        <v>4815</v>
       </c>
       <c r="F22" t="n">
-        <v>76180</v>
+        <v>4815</v>
       </c>
       <c r="G22" t="n">
-        <v>76180</v>
+        <v>4815</v>
       </c>
       <c r="H22" t="n">
-        <v>0.423509267392344</v>
+        <v>0.274327711941659</v>
       </c>
       <c r="I22" t="n">
-        <v>0.424037316174424</v>
+        <v>0.274327711941659</v>
       </c>
       <c r="J22" t="n">
-        <v>0.423509267392344</v>
+        <v>0.274327711941659</v>
       </c>
       <c r="K22" t="n">
-        <v>2255.63408328041</v>
+        <v>786.763276778664</v>
       </c>
       <c r="L22" t="n">
-        <v>2255.63408328041</v>
+        <v>786.763276778664</v>
       </c>
       <c r="M22" t="n">
-        <v>2255.63408328041</v>
+        <v>786.763276778664</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0117746627686373</v>
+        <v>0.0355531673900154</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0118047800837128</v>
+        <v>0.0355531673900154</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0117746627686373</v>
+        <v>0.0355531673900154</v>
       </c>
       <c r="Q22" t="s">
         <v>26</v>
@@ -1888,40 +1888,40 @@
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>105164</v>
+        <v>76180</v>
       </c>
       <c r="F23" t="n">
-        <v>105164</v>
+        <v>76180</v>
       </c>
       <c r="G23" t="n">
-        <v>105164</v>
+        <v>76180</v>
       </c>
       <c r="H23" t="n">
-        <v>0.368797211331421</v>
+        <v>0.423509267392344</v>
       </c>
       <c r="I23" t="n">
-        <v>0.369149332004128</v>
+        <v>0.424037316174424</v>
       </c>
       <c r="J23" t="n">
-        <v>0.368797211331421</v>
+        <v>0.423509267392344</v>
       </c>
       <c r="K23" t="n">
-        <v>2892.17853986402</v>
+        <v>2255.63408328041</v>
       </c>
       <c r="L23" t="n">
-        <v>2892.17853986402</v>
+        <v>2255.63408328041</v>
       </c>
       <c r="M23" t="n">
-        <v>2892.17853986402</v>
+        <v>2255.63408328041</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00963467645794475</v>
+        <v>0.0117746627686373</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00965772791480091</v>
+        <v>0.0118047800837128</v>
       </c>
       <c r="P23" t="n">
-        <v>0.00963467645794475</v>
+        <v>0.0117746627686373</v>
       </c>
       <c r="Q23" t="s">
         <v>26</v>
@@ -2570,49 +2570,49 @@
         <v>22</v>
       </c>
       <c r="E34" t="n">
-        <v>1044</v>
+        <v>14750</v>
       </c>
       <c r="F34" t="n">
-        <v>1044</v>
+        <v>14750</v>
       </c>
       <c r="G34" t="n">
-        <v>1044</v>
+        <v>14750</v>
       </c>
       <c r="H34" t="n">
-        <v>0.659507264687303</v>
+        <v>0.584204689480355</v>
       </c>
       <c r="I34" t="n">
-        <v>0.659507264687303</v>
+        <v>0.584667829395909</v>
       </c>
       <c r="J34" t="n">
-        <v>0.659507264687303</v>
+        <v>0.584204689480355</v>
       </c>
       <c r="K34" t="n">
-        <v>314.504039115557</v>
+        <v>1028.16243951831</v>
       </c>
       <c r="L34" t="n">
-        <v>314.504039115557</v>
+        <v>1028.16243951831</v>
       </c>
       <c r="M34" t="n">
-        <v>314.504039115557</v>
+        <v>1028.16243951831</v>
       </c>
       <c r="N34" t="n">
-        <v>0.100762393239458</v>
+        <v>0.0307138625457111</v>
       </c>
       <c r="O34" t="n">
-        <v>0.100762393239458</v>
+        <v>0.0307456884998191</v>
       </c>
       <c r="P34" t="n">
-        <v>0.100762393239458</v>
+        <v>0.0307138625457111</v>
       </c>
       <c r="Q34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T34" t="s">
         <v>24</v>
@@ -2632,49 +2632,49 @@
         <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>12512</v>
+        <v>1044</v>
       </c>
       <c r="F35" t="n">
-        <v>12512</v>
+        <v>1044</v>
       </c>
       <c r="G35" t="n">
-        <v>12512</v>
+        <v>1044</v>
       </c>
       <c r="H35" t="n">
-        <v>0.614477949120911</v>
+        <v>0.659507264687303</v>
       </c>
       <c r="I35" t="n">
-        <v>0.615082096155737</v>
+        <v>0.659507264687303</v>
       </c>
       <c r="J35" t="n">
-        <v>0.614477949120911</v>
+        <v>0.659507264687303</v>
       </c>
       <c r="K35" t="n">
-        <v>967.441198801638</v>
+        <v>314.504039115557</v>
       </c>
       <c r="L35" t="n">
-        <v>967.441198801638</v>
+        <v>314.504039115557</v>
       </c>
       <c r="M35" t="n">
-        <v>967.441198801638</v>
+        <v>314.504039115557</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0346231103847859</v>
+        <v>0.100762393239458</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0346353266037282</v>
+        <v>0.100762393239458</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0346231103847859</v>
+        <v>0.100762393239458</v>
       </c>
       <c r="Q35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T35" t="s">
         <v>24</v>
@@ -2694,40 +2694,40 @@
         <v>22</v>
       </c>
       <c r="E36" t="n">
-        <v>14750</v>
+        <v>12512</v>
       </c>
       <c r="F36" t="n">
-        <v>14750</v>
+        <v>12512</v>
       </c>
       <c r="G36" t="n">
-        <v>14750</v>
+        <v>12512</v>
       </c>
       <c r="H36" t="n">
-        <v>0.584204689480355</v>
+        <v>0.614477949120911</v>
       </c>
       <c r="I36" t="n">
-        <v>0.584667829395909</v>
+        <v>0.615082096155737</v>
       </c>
       <c r="J36" t="n">
-        <v>0.584204689480355</v>
+        <v>0.614477949120911</v>
       </c>
       <c r="K36" t="n">
-        <v>1028.16243951831</v>
+        <v>967.441198801638</v>
       </c>
       <c r="L36" t="n">
-        <v>1028.16243951831</v>
+        <v>967.441198801638</v>
       </c>
       <c r="M36" t="n">
-        <v>1028.16243951831</v>
+        <v>967.441198801638</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0307138625457111</v>
+        <v>0.0346231103847859</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0307456884998191</v>
+        <v>0.0346353266037282</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0307138625457111</v>
+        <v>0.0346231103847859</v>
       </c>
       <c r="Q36" t="s">
         <v>26</v>
@@ -3376,40 +3376,40 @@
         <v>22</v>
       </c>
       <c r="E47" t="n">
-        <v>2299</v>
+        <v>43227</v>
       </c>
       <c r="F47" t="n">
-        <v>2299</v>
+        <v>43227</v>
       </c>
       <c r="G47" t="n">
-        <v>2299</v>
+        <v>43227</v>
       </c>
       <c r="H47" t="n">
-        <v>0.442540904716073</v>
+        <v>0.50793744051326</v>
       </c>
       <c r="I47" t="n">
-        <v>0.442540904716073</v>
+        <v>0.508672628853848</v>
       </c>
       <c r="J47" t="n">
-        <v>0.442540904716073</v>
+        <v>0.50793744051326</v>
       </c>
       <c r="K47" t="n">
-        <v>457.796731983748</v>
+        <v>1519.97879829498</v>
       </c>
       <c r="L47" t="n">
-        <v>457.796731983748</v>
+        <v>1519.97879829498</v>
       </c>
       <c r="M47" t="n">
-        <v>457.796731983748</v>
+        <v>1519.97879829498</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0628996777921312</v>
+        <v>0.0144146410273988</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0628996777921312</v>
+        <v>0.0143872832919444</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0628996777921312</v>
+        <v>0.0144146410273988</v>
       </c>
       <c r="Q47" t="s">
         <v>26</v>
@@ -3438,40 +3438,40 @@
         <v>22</v>
       </c>
       <c r="E48" t="n">
-        <v>34349</v>
+        <v>2299</v>
       </c>
       <c r="F48" t="n">
-        <v>34349</v>
+        <v>2299</v>
       </c>
       <c r="G48" t="n">
-        <v>34349</v>
+        <v>2299</v>
       </c>
       <c r="H48" t="n">
-        <v>0.567958596514435</v>
+        <v>0.442540904716073</v>
       </c>
       <c r="I48" t="n">
-        <v>0.568644979720222</v>
+        <v>0.442540904716073</v>
       </c>
       <c r="J48" t="n">
-        <v>0.567958596514435</v>
+        <v>0.442540904716073</v>
       </c>
       <c r="K48" t="n">
-        <v>1312.80925282674</v>
+        <v>457.796731983748</v>
       </c>
       <c r="L48" t="n">
-        <v>1312.80925282674</v>
+        <v>457.796731983748</v>
       </c>
       <c r="M48" t="n">
-        <v>1312.80925282674</v>
+        <v>457.796731983748</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0160970797145522</v>
+        <v>0.0628996777921312</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0160566645145478</v>
+        <v>0.0628996777921312</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0160970797145522</v>
+        <v>0.0628996777921312</v>
       </c>
       <c r="Q48" t="s">
         <v>26</v>
@@ -3500,40 +3500,40 @@
         <v>22</v>
       </c>
       <c r="E49" t="n">
-        <v>43227</v>
+        <v>34349</v>
       </c>
       <c r="F49" t="n">
-        <v>43227</v>
+        <v>34349</v>
       </c>
       <c r="G49" t="n">
-        <v>43227</v>
+        <v>34349</v>
       </c>
       <c r="H49" t="n">
-        <v>0.50793744051326</v>
+        <v>0.567958596514435</v>
       </c>
       <c r="I49" t="n">
-        <v>0.508672628853848</v>
+        <v>0.568644979720222</v>
       </c>
       <c r="J49" t="n">
-        <v>0.50793744051326</v>
+        <v>0.567958596514435</v>
       </c>
       <c r="K49" t="n">
-        <v>1519.97879829498</v>
+        <v>1312.80925282674</v>
       </c>
       <c r="L49" t="n">
-        <v>1519.97879829498</v>
+        <v>1312.80925282674</v>
       </c>
       <c r="M49" t="n">
-        <v>1519.97879829498</v>
+        <v>1312.80925282674</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0144146410273988</v>
+        <v>0.0160970797145522</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0143872832919444</v>
+        <v>0.0160566645145478</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0144146410273988</v>
+        <v>0.0160970797145522</v>
       </c>
       <c r="Q49" t="s">
         <v>26</v>
@@ -4052,56 +4052,26 @@
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
       </c>
-      <c r="E58" t="n">
-        <v>219</v>
-      </c>
-      <c r="F58" t="n">
-        <v>219</v>
-      </c>
-      <c r="G58" t="n">
-        <v>219</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.384885764499121</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.384885764499121</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.384885764499121</v>
-      </c>
-      <c r="K58" t="n">
-        <v>130.865410704089</v>
-      </c>
-      <c r="L58" t="n">
-        <v>130.865410704089</v>
-      </c>
-      <c r="M58" t="n">
-        <v>130.865410704089</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.183116547771441</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.183116547771441</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.183116547771441</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>30</v>
-      </c>
-      <c r="R58" t="s">
-        <v>30</v>
-      </c>
-      <c r="S58" t="s">
-        <v>30</v>
-      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
       <c r="T58" t="s">
         <v>24</v>
       </c>
@@ -4114,55 +4084,55 @@
         <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
       </c>
       <c r="E59" t="n">
-        <v>1554</v>
+        <v>219</v>
       </c>
       <c r="F59" t="n">
-        <v>1554</v>
+        <v>219</v>
       </c>
       <c r="G59" t="n">
-        <v>1554</v>
+        <v>219</v>
       </c>
       <c r="H59" t="n">
-        <v>0.455852156057495</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="I59" t="n">
-        <v>0.455852156057495</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="J59" t="n">
-        <v>0.455852156057495</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="K59" t="n">
-        <v>398.852461461315</v>
+        <v>130.865410704089</v>
       </c>
       <c r="L59" t="n">
-        <v>398.852461461315</v>
+        <v>130.865410704089</v>
       </c>
       <c r="M59" t="n">
-        <v>398.852461461315</v>
+        <v>130.865410704089</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="O59" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="Q59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T59" t="s">
         <v>24</v>
@@ -4176,46 +4146,46 @@
         <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
       </c>
       <c r="E60" t="n">
-        <v>31936</v>
+        <v>39387</v>
       </c>
       <c r="F60" t="n">
-        <v>31936</v>
+        <v>39374</v>
       </c>
       <c r="G60" t="n">
-        <v>31936</v>
+        <v>39387</v>
       </c>
       <c r="H60" t="n">
-        <v>0.568762243989314</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="I60" t="n">
-        <v>0.569005452018672</v>
+        <v>0.546489194853502</v>
       </c>
       <c r="J60" t="n">
-        <v>0.568762243989314</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="K60" t="n">
-        <v>1583.12354872535</v>
+        <v>1809.53540454</v>
       </c>
       <c r="L60" t="n">
-        <v>1583.12354872535</v>
+        <v>1805.82339111519</v>
       </c>
       <c r="M60" t="n">
-        <v>1583.12354872535</v>
+        <v>1809.53540454</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0211868506395508</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0211536420417412</v>
+        <v>0.0194057161155801</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0211868506395508</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="Q60" t="s">
         <v>26</v>
@@ -4238,55 +4208,55 @@
         <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
       </c>
       <c r="E61" t="n">
-        <v>39387</v>
+        <v>1554</v>
       </c>
       <c r="F61" t="n">
-        <v>39374</v>
+        <v>1554</v>
       </c>
       <c r="G61" t="n">
-        <v>39387</v>
+        <v>1554</v>
       </c>
       <c r="H61" t="n">
-        <v>0.545662353495331</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="I61" t="n">
-        <v>0.546489194853502</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="J61" t="n">
-        <v>0.545662353495331</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="K61" t="n">
-        <v>1809.53540454</v>
+        <v>398.852461461315</v>
       </c>
       <c r="L61" t="n">
-        <v>1805.82339111519</v>
+        <v>398.852461461315</v>
       </c>
       <c r="M61" t="n">
-        <v>1809.53540454</v>
+        <v>398.852461461315</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0194057161155801</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="Q61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T61" t="s">
         <v>24</v>
@@ -4300,55 +4270,55 @@
         <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
       <c r="E62" t="n">
-        <v>1554</v>
+        <v>31936</v>
       </c>
       <c r="F62" t="n">
-        <v>1554</v>
+        <v>31936</v>
       </c>
       <c r="G62" t="n">
-        <v>1554</v>
+        <v>31936</v>
       </c>
       <c r="H62" t="n">
-        <v>0.455852156057495</v>
+        <v>0.568762243989314</v>
       </c>
       <c r="I62" t="n">
-        <v>0.455852156057495</v>
+        <v>0.569005452018672</v>
       </c>
       <c r="J62" t="n">
-        <v>0.455852156057495</v>
+        <v>0.568762243989314</v>
       </c>
       <c r="K62" t="n">
-        <v>398.852461461315</v>
+        <v>1583.12354872535</v>
       </c>
       <c r="L62" t="n">
-        <v>398.852461461315</v>
+        <v>1583.12354872535</v>
       </c>
       <c r="M62" t="n">
-        <v>398.852461461315</v>
+        <v>1583.12354872535</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.0211868506395508</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.0211536420417412</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.0211868506395508</v>
       </c>
       <c r="Q62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T62" t="s">
         <v>24</v>
@@ -4362,55 +4332,55 @@
         <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
       </c>
       <c r="E63" t="n">
-        <v>37833</v>
+        <v>1554</v>
       </c>
       <c r="F63" t="n">
-        <v>37820</v>
+        <v>1554</v>
       </c>
       <c r="G63" t="n">
-        <v>37833</v>
+        <v>1554</v>
       </c>
       <c r="H63" t="n">
-        <v>0.550114143631949</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="I63" t="n">
-        <v>0.550990675990676</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="J63" t="n">
-        <v>0.550114143631949</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="K63" t="n">
-        <v>1816.67211837263</v>
+        <v>398.852461461315</v>
       </c>
       <c r="L63" t="n">
-        <v>1812.88374167788</v>
+        <v>398.852461461315</v>
       </c>
       <c r="M63" t="n">
-        <v>1816.67211837263</v>
+        <v>398.852461461315</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0206838997758817</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0204756514200509</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0206838997758817</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="Q63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T63" t="s">
         <v>24</v>
@@ -4424,46 +4394,46 @@
         <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
       </c>
       <c r="E64" t="n">
-        <v>39387</v>
+        <v>37833</v>
       </c>
       <c r="F64" t="n">
-        <v>39374</v>
+        <v>37820</v>
       </c>
       <c r="G64" t="n">
-        <v>39387</v>
+        <v>37833</v>
       </c>
       <c r="H64" t="n">
-        <v>0.545662353495331</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="I64" t="n">
-        <v>0.546489194853502</v>
+        <v>0.550990675990676</v>
       </c>
       <c r="J64" t="n">
-        <v>0.545662353495331</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="K64" t="n">
-        <v>1809.53540454</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="L64" t="n">
-        <v>1805.82339111519</v>
+        <v>1812.88374167788</v>
       </c>
       <c r="M64" t="n">
-        <v>1809.53540454</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0194057161155801</v>
+        <v>0.0204756514200509</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="Q64" t="s">
         <v>26</v>
@@ -4486,57 +4456,119 @@
         <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
       </c>
       <c r="E65" t="n">
+        <v>39387</v>
+      </c>
+      <c r="F65" t="n">
+        <v>39374</v>
+      </c>
+      <c r="G65" t="n">
+        <v>39387</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.545662353495331</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.546489194853502</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.545662353495331</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1809.53540454</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1805.82339111519</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1809.53540454</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0196297044202006</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0194057161155801</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.0196297044202006</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>26</v>
+      </c>
+      <c r="R65" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65" t="s">
+        <v>26</v>
+      </c>
+      <c r="T65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="n">
         <v>7451</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F66" t="n">
         <v>7438</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G66" t="n">
         <v>7451</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H66" t="n">
         <v>0.464757984031936</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I66" t="n">
         <v>0.467123029579853</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J66" t="n">
         <v>0.464757984031936</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K66" t="n">
         <v>903.529783524041</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L66" t="n">
         <v>900.154160944113</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M66" t="n">
         <v>903.529783524041</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N66" t="n">
         <v>0.0373840028183127</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O66" t="n">
         <v>0.0364220347435384</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P66" t="n">
         <v>0.0373840028183127</v>
       </c>
-      <c r="Q65" t="s">
-        <v>26</v>
-      </c>
-      <c r="R65" t="s">
-        <v>26</v>
-      </c>
-      <c r="S65" t="s">
-        <v>26</v>
-      </c>
-      <c r="T65" t="s">
+      <c r="Q66" t="s">
+        <v>26</v>
+      </c>
+      <c r="R66" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T66" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5002,40 +5034,40 @@
         <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>38084</v>
+        <v>829150</v>
       </c>
       <c r="F8" t="n">
-        <v>12024</v>
+        <v>829083</v>
       </c>
       <c r="G8" t="n">
-        <v>11312</v>
+        <v>829150</v>
       </c>
       <c r="H8" t="n">
-        <v>0.579356507187952</v>
+        <v>0.676343673782353</v>
       </c>
       <c r="I8" t="n">
-        <v>0.531400539178857</v>
+        <v>0.676359088695329</v>
       </c>
       <c r="J8" t="n">
-        <v>0.555462803830101</v>
+        <v>0.676343673782353</v>
       </c>
       <c r="K8" t="n">
-        <v>1707.53313760817</v>
+        <v>7216.77150203564</v>
       </c>
       <c r="L8" t="n">
-        <v>1088.35573239693</v>
+        <v>7220.51463434957</v>
       </c>
       <c r="M8" t="n">
-        <v>998.978310963256</v>
+        <v>7216.77150203564</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0185342065852263</v>
+        <v>0.00431158147079006</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0362820764610204</v>
+        <v>0.00431465110000509</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0371062092769635</v>
+        <v>0.00431158147079006</v>
       </c>
       <c r="Q8" t="s">
         <v>26</v>
@@ -5064,40 +5096,40 @@
         <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>582438</v>
+        <v>38084</v>
       </c>
       <c r="F9" t="n">
-        <v>490555</v>
+        <v>12024</v>
       </c>
       <c r="G9" t="n">
-        <v>479146</v>
+        <v>11312</v>
       </c>
       <c r="H9" t="n">
-        <v>0.733659074848749</v>
+        <v>0.579356507187952</v>
       </c>
       <c r="I9" t="n">
-        <v>0.748327701800819</v>
+        <v>0.531400539178857</v>
       </c>
       <c r="J9" t="n">
-        <v>0.75317526188051</v>
+        <v>0.555462803830101</v>
       </c>
       <c r="K9" t="n">
-        <v>5780.97019862745</v>
+        <v>1707.53313760817</v>
       </c>
       <c r="L9" t="n">
-        <v>4942.4094807739</v>
+        <v>1088.35573239693</v>
       </c>
       <c r="M9" t="n">
-        <v>4883.78179239025</v>
+        <v>998.978310963256</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00513552649232297</v>
+        <v>0.0185342065852263</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00517997009221044</v>
+        <v>0.0362820764610204</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00513371417759385</v>
+        <v>0.0371062092769635</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
@@ -5126,40 +5158,40 @@
         <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>829150</v>
+        <v>582438</v>
       </c>
       <c r="F10" t="n">
-        <v>829083</v>
+        <v>490555</v>
       </c>
       <c r="G10" t="n">
-        <v>829150</v>
+        <v>479146</v>
       </c>
       <c r="H10" t="n">
-        <v>0.676343673782353</v>
+        <v>0.733659074848749</v>
       </c>
       <c r="I10" t="n">
-        <v>0.676359088695329</v>
+        <v>0.748327701800819</v>
       </c>
       <c r="J10" t="n">
-        <v>0.676343673782353</v>
+        <v>0.75317526188051</v>
       </c>
       <c r="K10" t="n">
-        <v>7216.77150203564</v>
+        <v>5780.97019862745</v>
       </c>
       <c r="L10" t="n">
-        <v>7220.51463434957</v>
+        <v>4942.4094807739</v>
       </c>
       <c r="M10" t="n">
-        <v>7216.77150203564</v>
+        <v>4883.78179239025</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00431158147079006</v>
+        <v>0.00513552649232297</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00431465110000509</v>
+        <v>0.00517997009221044</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00431158147079006</v>
+        <v>0.00513371417759385</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -6068,40 +6100,40 @@
         <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>17162</v>
+        <v>415040</v>
       </c>
       <c r="F26" t="n">
-        <v>5476</v>
+        <v>414998</v>
       </c>
       <c r="G26" t="n">
-        <v>5126</v>
+        <v>415040</v>
       </c>
       <c r="H26" t="n">
-        <v>0.537572435395458</v>
+        <v>0.645808793667638</v>
       </c>
       <c r="I26" t="n">
-        <v>0.514661654135338</v>
+        <v>0.645845945546365</v>
       </c>
       <c r="J26" t="n">
-        <v>0.533735943356935</v>
+        <v>0.645808793667638</v>
       </c>
       <c r="K26" t="n">
-        <v>1161.73785321603</v>
+        <v>4681.97936653532</v>
       </c>
       <c r="L26" t="n">
-        <v>796.002139999479</v>
+        <v>4680.78666842391</v>
       </c>
       <c r="M26" t="n">
-        <v>740.323564400222</v>
+        <v>4681.97936653532</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0301034581210073</v>
+        <v>0.00587309302530072</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0579712491106331</v>
+        <v>0.00587152730530649</v>
       </c>
       <c r="P26" t="n">
-        <v>0.056795974237296</v>
+        <v>0.00587309302530072</v>
       </c>
       <c r="Q26" t="s">
         <v>26</v>
@@ -6130,40 +6162,40 @@
         <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>273623</v>
+        <v>17162</v>
       </c>
       <c r="F27" t="n">
-        <v>228100</v>
+        <v>5476</v>
       </c>
       <c r="G27" t="n">
-        <v>223822</v>
+        <v>5126</v>
       </c>
       <c r="H27" t="n">
-        <v>0.713235984109937</v>
+        <v>0.537572435395458</v>
       </c>
       <c r="I27" t="n">
-        <v>0.732940889168798</v>
+        <v>0.514661654135338</v>
       </c>
       <c r="J27" t="n">
-        <v>0.736012048628581</v>
+        <v>0.533735943356935</v>
       </c>
       <c r="K27" t="n">
-        <v>3501.63101872328</v>
+        <v>1161.73785321603</v>
       </c>
       <c r="L27" t="n">
-        <v>2858.80240349587</v>
+        <v>796.002139999479</v>
       </c>
       <c r="M27" t="n">
-        <v>2846.58473521165</v>
+        <v>740.323564400222</v>
       </c>
       <c r="N27" t="n">
-        <v>0.00712822845539553</v>
+        <v>0.0301034581210073</v>
       </c>
       <c r="O27" t="n">
-        <v>0.00769222567745673</v>
+        <v>0.0579712491106331</v>
       </c>
       <c r="P27" t="n">
-        <v>0.00776891718295308</v>
+        <v>0.056795974237296</v>
       </c>
       <c r="Q27" t="s">
         <v>26</v>
@@ -6192,40 +6224,40 @@
         <v>22</v>
       </c>
       <c r="E28" t="n">
-        <v>415040</v>
+        <v>273623</v>
       </c>
       <c r="F28" t="n">
-        <v>414998</v>
+        <v>228100</v>
       </c>
       <c r="G28" t="n">
-        <v>415040</v>
+        <v>223822</v>
       </c>
       <c r="H28" t="n">
-        <v>0.645808793667638</v>
+        <v>0.713235984109937</v>
       </c>
       <c r="I28" t="n">
-        <v>0.645845945546365</v>
+        <v>0.732940889168798</v>
       </c>
       <c r="J28" t="n">
-        <v>0.645808793667638</v>
+        <v>0.736012048628581</v>
       </c>
       <c r="K28" t="n">
-        <v>4681.97936653532</v>
+        <v>3501.63101872328</v>
       </c>
       <c r="L28" t="n">
-        <v>4680.78666842391</v>
+        <v>2858.80240349587</v>
       </c>
       <c r="M28" t="n">
-        <v>4681.97936653532</v>
+        <v>2846.58473521165</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00587309302530072</v>
+        <v>0.00712822845539553</v>
       </c>
       <c r="O28" t="n">
-        <v>0.00587152730530649</v>
+        <v>0.00769222567745673</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00587309302530072</v>
+        <v>0.00776891718295308</v>
       </c>
       <c r="Q28" t="s">
         <v>26</v>
@@ -7134,40 +7166,40 @@
         <v>22</v>
       </c>
       <c r="E44" t="n">
-        <v>2370</v>
+        <v>60291</v>
       </c>
       <c r="F44" t="n">
-        <v>799</v>
+        <v>60291</v>
       </c>
       <c r="G44" t="n">
-        <v>773</v>
+        <v>60291</v>
       </c>
       <c r="H44" t="n">
-        <v>0.568345323741007</v>
+        <v>0.735112660944206</v>
       </c>
       <c r="I44" t="n">
-        <v>0.52462245567958</v>
+        <v>0.735112660944206</v>
       </c>
       <c r="J44" t="n">
-        <v>0.558526011560694</v>
+        <v>0.735112660944206</v>
       </c>
       <c r="K44" t="n">
-        <v>317.828091173121</v>
+        <v>1473.38748192728</v>
       </c>
       <c r="L44" t="n">
-        <v>189.873906771046</v>
+        <v>1473.38748192728</v>
       </c>
       <c r="M44" t="n">
-        <v>187.389256395611</v>
+        <v>1473.38748192728</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0632162462825805</v>
+        <v>0.0142670278424646</v>
       </c>
       <c r="O44" t="n">
-        <v>0.107098370565685</v>
+        <v>0.0142670278424646</v>
       </c>
       <c r="P44" t="n">
-        <v>0.11371306243074</v>
+        <v>0.0142670278424646</v>
       </c>
       <c r="Q44" t="s">
         <v>26</v>
@@ -7196,40 +7228,40 @@
         <v>22</v>
       </c>
       <c r="E45" t="n">
-        <v>50241</v>
+        <v>2370</v>
       </c>
       <c r="F45" t="n">
-        <v>43009</v>
+        <v>799</v>
       </c>
       <c r="G45" t="n">
-        <v>41904</v>
+        <v>773</v>
       </c>
       <c r="H45" t="n">
-        <v>0.77609058329214</v>
+        <v>0.568345323741007</v>
       </c>
       <c r="I45" t="n">
-        <v>0.782109799785419</v>
+        <v>0.52462245567958</v>
       </c>
       <c r="J45" t="n">
-        <v>0.788766329104393</v>
+        <v>0.558526011560694</v>
       </c>
       <c r="K45" t="n">
-        <v>1365.54951599484</v>
+        <v>317.828091173121</v>
       </c>
       <c r="L45" t="n">
-        <v>1434.85722601937</v>
+        <v>189.873906771046</v>
       </c>
       <c r="M45" t="n">
-        <v>1368.95848397787</v>
+        <v>187.389256395611</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0169516233216178</v>
+        <v>0.0632162462825805</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0178374789636323</v>
+        <v>0.107098370565685</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0173281132053233</v>
+        <v>0.11371306243074</v>
       </c>
       <c r="Q45" t="s">
         <v>26</v>
@@ -7258,40 +7290,40 @@
         <v>22</v>
       </c>
       <c r="E46" t="n">
-        <v>60291</v>
+        <v>50241</v>
       </c>
       <c r="F46" t="n">
-        <v>60291</v>
+        <v>43009</v>
       </c>
       <c r="G46" t="n">
-        <v>60291</v>
+        <v>41904</v>
       </c>
       <c r="H46" t="n">
-        <v>0.735112660944206</v>
+        <v>0.77609058329214</v>
       </c>
       <c r="I46" t="n">
-        <v>0.735112660944206</v>
+        <v>0.782109799785419</v>
       </c>
       <c r="J46" t="n">
-        <v>0.735112660944206</v>
+        <v>0.788766329104393</v>
       </c>
       <c r="K46" t="n">
-        <v>1473.38748192728</v>
+        <v>1365.54951599484</v>
       </c>
       <c r="L46" t="n">
-        <v>1473.38748192728</v>
+        <v>1434.85722601937</v>
       </c>
       <c r="M46" t="n">
-        <v>1473.38748192728</v>
+        <v>1368.95848397787</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0142670278424646</v>
+        <v>0.0169516233216178</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0142670278424646</v>
+        <v>0.0178374789636323</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0142670278424646</v>
+        <v>0.0173281132053233</v>
       </c>
       <c r="Q46" t="s">
         <v>26</v>
@@ -8200,40 +8232,40 @@
         <v>22</v>
       </c>
       <c r="E62" t="n">
-        <v>10936</v>
+        <v>180761</v>
       </c>
       <c r="F62" t="n">
-        <v>3020</v>
+        <v>180736</v>
       </c>
       <c r="G62" t="n">
-        <v>2818</v>
+        <v>180761</v>
       </c>
       <c r="H62" t="n">
-        <v>0.583253333333333</v>
+        <v>0.690977133202346</v>
       </c>
       <c r="I62" t="n">
-        <v>0.464973056197075</v>
+        <v>0.690947598603853</v>
       </c>
       <c r="J62" t="n">
-        <v>0.495603236018291</v>
+        <v>0.690977133202346</v>
       </c>
       <c r="K62" t="n">
-        <v>1131.13607892961</v>
+        <v>2666.91702717881</v>
       </c>
       <c r="L62" t="n">
-        <v>540.656597151787</v>
+        <v>2667.7389306609</v>
       </c>
       <c r="M62" t="n">
-        <v>505.749491530886</v>
+        <v>2666.91702717881</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0413064543501138</v>
+        <v>0.00813933248704199</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0633528326772123</v>
+        <v>0.00814217060961465</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0722201027808078</v>
+        <v>0.00813933248704199</v>
       </c>
       <c r="Q62" t="s">
         <v>26</v>
@@ -8262,40 +8294,40 @@
         <v>22</v>
       </c>
       <c r="E63" t="n">
-        <v>133736</v>
+        <v>10936</v>
       </c>
       <c r="F63" t="n">
-        <v>111965</v>
+        <v>3020</v>
       </c>
       <c r="G63" t="n">
-        <v>108663</v>
+        <v>2818</v>
       </c>
       <c r="H63" t="n">
-        <v>0.745874256139118</v>
+        <v>0.583253333333333</v>
       </c>
       <c r="I63" t="n">
-        <v>0.758108199607285</v>
+        <v>0.464973056197075</v>
       </c>
       <c r="J63" t="n">
-        <v>0.765291677524315</v>
+        <v>0.495603236018291</v>
       </c>
       <c r="K63" t="n">
-        <v>2094.95926486889</v>
+        <v>1131.13607892961</v>
       </c>
       <c r="L63" t="n">
-        <v>1959.52010568787</v>
+        <v>540.656597151787</v>
       </c>
       <c r="M63" t="n">
-        <v>1962.15679988247</v>
+        <v>505.749491530886</v>
       </c>
       <c r="N63" t="n">
-        <v>0.00935401935272927</v>
+        <v>0.0413064543501138</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0098523680730598</v>
+        <v>0.0633528326772123</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0101304697597472</v>
+        <v>0.0722201027808078</v>
       </c>
       <c r="Q63" t="s">
         <v>26</v>
@@ -8324,40 +8356,40 @@
         <v>22</v>
       </c>
       <c r="E64" t="n">
-        <v>180761</v>
+        <v>133736</v>
       </c>
       <c r="F64" t="n">
-        <v>180736</v>
+        <v>111965</v>
       </c>
       <c r="G64" t="n">
-        <v>180761</v>
+        <v>108663</v>
       </c>
       <c r="H64" t="n">
-        <v>0.690977133202346</v>
+        <v>0.745874256139118</v>
       </c>
       <c r="I64" t="n">
-        <v>0.690947598603853</v>
+        <v>0.758108199607285</v>
       </c>
       <c r="J64" t="n">
-        <v>0.690977133202346</v>
+        <v>0.765291677524315</v>
       </c>
       <c r="K64" t="n">
-        <v>2666.91702717881</v>
+        <v>2094.95926486889</v>
       </c>
       <c r="L64" t="n">
-        <v>2667.7389306609</v>
+        <v>1959.52010568787</v>
       </c>
       <c r="M64" t="n">
-        <v>2666.91702717881</v>
+        <v>1962.15679988247</v>
       </c>
       <c r="N64" t="n">
-        <v>0.00813933248704199</v>
+        <v>0.00935401935272927</v>
       </c>
       <c r="O64" t="n">
-        <v>0.00814217060961465</v>
+        <v>0.0098523680730598</v>
       </c>
       <c r="P64" t="n">
-        <v>0.00813933248704199</v>
+        <v>0.0101304697597472</v>
       </c>
       <c r="Q64" t="s">
         <v>26</v>
@@ -9266,40 +9298,40 @@
         <v>22</v>
       </c>
       <c r="E80" t="n">
-        <v>7616</v>
+        <v>173058</v>
       </c>
       <c r="F80" t="n">
-        <v>2729</v>
+        <v>173058</v>
       </c>
       <c r="G80" t="n">
-        <v>2595</v>
+        <v>173058</v>
       </c>
       <c r="H80" t="n">
-        <v>0.699357208448118</v>
+        <v>0.722143170105781</v>
       </c>
       <c r="I80" t="n">
-        <v>0.687578735197783</v>
+        <v>0.722143170105781</v>
       </c>
       <c r="J80" t="n">
-        <v>0.703061500948252</v>
+        <v>0.722143170105781</v>
       </c>
       <c r="K80" t="n">
-        <v>762.493965956453</v>
+        <v>2899.96858243456</v>
       </c>
       <c r="L80" t="n">
-        <v>539.057614818444</v>
+        <v>2899.96858243456</v>
       </c>
       <c r="M80" t="n">
-        <v>535.172883879593</v>
+        <v>2899.96858243456</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0387834571797512</v>
+        <v>0.00817356793146456</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0681236877683524</v>
+        <v>0.00817356793146456</v>
       </c>
       <c r="P80" t="n">
-        <v>0.0701202060712853</v>
+        <v>0.00817356793146456</v>
       </c>
       <c r="Q80" t="s">
         <v>26</v>
@@ -9328,40 +9360,40 @@
         <v>22</v>
       </c>
       <c r="E81" t="n">
-        <v>124838</v>
+        <v>7616</v>
       </c>
       <c r="F81" t="n">
-        <v>107481</v>
+        <v>2729</v>
       </c>
       <c r="G81" t="n">
-        <v>104757</v>
+        <v>2595</v>
       </c>
       <c r="H81" t="n">
-        <v>0.751095013477089</v>
+        <v>0.699357208448118</v>
       </c>
       <c r="I81" t="n">
-        <v>0.758821535985089</v>
+        <v>0.687578735197783</v>
       </c>
       <c r="J81" t="n">
-        <v>0.764917635375898</v>
+        <v>0.703061500948252</v>
       </c>
       <c r="K81" t="n">
-        <v>2327.65291155597</v>
+        <v>762.493965956453</v>
       </c>
       <c r="L81" t="n">
-        <v>1936.966230138</v>
+        <v>539.057614818444</v>
       </c>
       <c r="M81" t="n">
-        <v>1962.06584564013</v>
+        <v>535.172883879593</v>
       </c>
       <c r="N81" t="n">
-        <v>0.00969946616300276</v>
+        <v>0.0387834571797512</v>
       </c>
       <c r="O81" t="n">
-        <v>0.00934838384070301</v>
+        <v>0.0681236877683524</v>
       </c>
       <c r="P81" t="n">
-        <v>0.00964176922865296</v>
+        <v>0.0701202060712853</v>
       </c>
       <c r="Q81" t="s">
         <v>26</v>
@@ -9390,40 +9422,40 @@
         <v>22</v>
       </c>
       <c r="E82" t="n">
-        <v>173058</v>
+        <v>124838</v>
       </c>
       <c r="F82" t="n">
-        <v>173058</v>
+        <v>107481</v>
       </c>
       <c r="G82" t="n">
-        <v>173058</v>
+        <v>104757</v>
       </c>
       <c r="H82" t="n">
-        <v>0.722143170105781</v>
+        <v>0.751095013477089</v>
       </c>
       <c r="I82" t="n">
-        <v>0.722143170105781</v>
+        <v>0.758821535985089</v>
       </c>
       <c r="J82" t="n">
-        <v>0.722143170105781</v>
+        <v>0.764917635375898</v>
       </c>
       <c r="K82" t="n">
-        <v>2899.96858243456</v>
+        <v>2327.65291155597</v>
       </c>
       <c r="L82" t="n">
-        <v>2899.96858243456</v>
+        <v>1936.966230138</v>
       </c>
       <c r="M82" t="n">
-        <v>2899.96858243456</v>
+        <v>1962.06584564013</v>
       </c>
       <c r="N82" t="n">
-        <v>0.00817356793146456</v>
+        <v>0.00969946616300276</v>
       </c>
       <c r="O82" t="n">
-        <v>0.00817356793146456</v>
+        <v>0.00934838384070301</v>
       </c>
       <c r="P82" t="n">
-        <v>0.00817356793146456</v>
+        <v>0.00964176922865296</v>
       </c>
       <c r="Q82" t="s">
         <v>26</v>
@@ -10408,40 +10440,40 @@
         <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>9712</v>
+        <v>202528</v>
       </c>
       <c r="F8" t="n">
-        <v>9712</v>
+        <v>202515</v>
       </c>
       <c r="G8" t="n">
-        <v>9712</v>
+        <v>202528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.350120768592956</v>
+        <v>0.433041756559408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.350120768592956</v>
+        <v>0.43352192816271</v>
       </c>
       <c r="J8" t="n">
-        <v>0.350120768592956</v>
+        <v>0.433041756559408</v>
       </c>
       <c r="K8" t="n">
-        <v>1124.42813530868</v>
+        <v>4300.24954274095</v>
       </c>
       <c r="L8" t="n">
-        <v>1124.42813530868</v>
+        <v>4303.22003176125</v>
       </c>
       <c r="M8" t="n">
-        <v>1124.42813530868</v>
+        <v>4300.24954274095</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0315349414690478</v>
+        <v>0.00772240635196667</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0315349414690478</v>
+        <v>0.00775590540378138</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0315349414690478</v>
+        <v>0.00772240635196667</v>
       </c>
       <c r="Q8" t="s">
         <v>26</v>
@@ -10470,40 +10502,40 @@
         <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>154977</v>
+        <v>9712</v>
       </c>
       <c r="F9" t="n">
-        <v>154977</v>
+        <v>9712</v>
       </c>
       <c r="G9" t="n">
-        <v>154977</v>
+        <v>9712</v>
       </c>
       <c r="H9" t="n">
-        <v>0.489090094297941</v>
+        <v>0.350120768592956</v>
       </c>
       <c r="I9" t="n">
-        <v>0.489616999497673</v>
+        <v>0.350120768592956</v>
       </c>
       <c r="J9" t="n">
-        <v>0.489090094297941</v>
+        <v>0.350120768592956</v>
       </c>
       <c r="K9" t="n">
-        <v>3482.89617388622</v>
+        <v>1124.42813530868</v>
       </c>
       <c r="L9" t="n">
-        <v>3482.89617388622</v>
+        <v>1124.42813530868</v>
       </c>
       <c r="M9" t="n">
-        <v>3482.89617388622</v>
+        <v>1124.42813530868</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00947604204677427</v>
+        <v>0.0315349414690478</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00944995730647364</v>
+        <v>0.0315349414690478</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00947604204677427</v>
+        <v>0.0315349414690478</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
@@ -10532,40 +10564,40 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>202528</v>
+        <v>154977</v>
       </c>
       <c r="F10" t="n">
-        <v>202515</v>
+        <v>154977</v>
       </c>
       <c r="G10" t="n">
-        <v>202528</v>
+        <v>154977</v>
       </c>
       <c r="H10" t="n">
-        <v>0.433041756559408</v>
+        <v>0.489090094297941</v>
       </c>
       <c r="I10" t="n">
-        <v>0.43352192816271</v>
+        <v>0.489616999497673</v>
       </c>
       <c r="J10" t="n">
-        <v>0.433041756559408</v>
+        <v>0.489090094297941</v>
       </c>
       <c r="K10" t="n">
-        <v>4300.24954274095</v>
+        <v>3482.89617388622</v>
       </c>
       <c r="L10" t="n">
-        <v>4303.22003176125</v>
+        <v>3482.89617388622</v>
       </c>
       <c r="M10" t="n">
-        <v>4300.24954274095</v>
+        <v>3482.89617388622</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00772240635196667</v>
+        <v>0.00947604204677427</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00775590540378138</v>
+        <v>0.00944995730647364</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00772240635196667</v>
+        <v>0.00947604204677427</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -11214,40 +11246,40 @@
         <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>4815</v>
+        <v>105164</v>
       </c>
       <c r="F21" t="n">
-        <v>4815</v>
+        <v>105164</v>
       </c>
       <c r="G21" t="n">
-        <v>4815</v>
+        <v>105164</v>
       </c>
       <c r="H21" t="n">
-        <v>0.274327711941659</v>
+        <v>0.368797211331421</v>
       </c>
       <c r="I21" t="n">
-        <v>0.274327711941659</v>
+        <v>0.369149332004128</v>
       </c>
       <c r="J21" t="n">
-        <v>0.274327711941659</v>
+        <v>0.368797211331421</v>
       </c>
       <c r="K21" t="n">
-        <v>786.763276778664</v>
+        <v>2892.17853986402</v>
       </c>
       <c r="L21" t="n">
-        <v>786.763276778664</v>
+        <v>2892.17853986402</v>
       </c>
       <c r="M21" t="n">
-        <v>786.763276778664</v>
+        <v>2892.17853986402</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0355531673900154</v>
+        <v>0.00963467645794475</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0355531673900154</v>
+        <v>0.00965772791480091</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0355531673900154</v>
+        <v>0.00963467645794475</v>
       </c>
       <c r="Q21" t="s">
         <v>26</v>
@@ -11276,40 +11308,40 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>76180</v>
+        <v>4815</v>
       </c>
       <c r="F22" t="n">
-        <v>76180</v>
+        <v>4815</v>
       </c>
       <c r="G22" t="n">
-        <v>76180</v>
+        <v>4815</v>
       </c>
       <c r="H22" t="n">
-        <v>0.423509267392344</v>
+        <v>0.274327711941659</v>
       </c>
       <c r="I22" t="n">
-        <v>0.424037316174424</v>
+        <v>0.274327711941659</v>
       </c>
       <c r="J22" t="n">
-        <v>0.423509267392344</v>
+        <v>0.274327711941659</v>
       </c>
       <c r="K22" t="n">
-        <v>2255.63408328041</v>
+        <v>786.763276778664</v>
       </c>
       <c r="L22" t="n">
-        <v>2255.63408328041</v>
+        <v>786.763276778664</v>
       </c>
       <c r="M22" t="n">
-        <v>2255.63408328041</v>
+        <v>786.763276778664</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0117746627686373</v>
+        <v>0.0355531673900154</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0118047800837128</v>
+        <v>0.0355531673900154</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0117746627686373</v>
+        <v>0.0355531673900154</v>
       </c>
       <c r="Q22" t="s">
         <v>26</v>
@@ -11338,40 +11370,40 @@
         <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>105164</v>
+        <v>76180</v>
       </c>
       <c r="F23" t="n">
-        <v>105164</v>
+        <v>76180</v>
       </c>
       <c r="G23" t="n">
-        <v>105164</v>
+        <v>76180</v>
       </c>
       <c r="H23" t="n">
-        <v>0.368797211331421</v>
+        <v>0.423509267392344</v>
       </c>
       <c r="I23" t="n">
-        <v>0.369149332004128</v>
+        <v>0.424037316174424</v>
       </c>
       <c r="J23" t="n">
-        <v>0.368797211331421</v>
+        <v>0.423509267392344</v>
       </c>
       <c r="K23" t="n">
-        <v>2892.17853986402</v>
+        <v>2255.63408328041</v>
       </c>
       <c r="L23" t="n">
-        <v>2892.17853986402</v>
+        <v>2255.63408328041</v>
       </c>
       <c r="M23" t="n">
-        <v>2892.17853986402</v>
+        <v>2255.63408328041</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00963467645794475</v>
+        <v>0.0117746627686373</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00965772791480091</v>
+        <v>0.0118047800837128</v>
       </c>
       <c r="P23" t="n">
-        <v>0.00963467645794475</v>
+        <v>0.0117746627686373</v>
       </c>
       <c r="Q23" t="s">
         <v>26</v>
@@ -12020,49 +12052,49 @@
         <v>50</v>
       </c>
       <c r="E34" t="n">
-        <v>1044</v>
+        <v>14750</v>
       </c>
       <c r="F34" t="n">
-        <v>1044</v>
+        <v>14750</v>
       </c>
       <c r="G34" t="n">
-        <v>1044</v>
+        <v>14750</v>
       </c>
       <c r="H34" t="n">
-        <v>0.659507264687303</v>
+        <v>0.584204689480355</v>
       </c>
       <c r="I34" t="n">
-        <v>0.659507264687303</v>
+        <v>0.584667829395909</v>
       </c>
       <c r="J34" t="n">
-        <v>0.659507264687303</v>
+        <v>0.584204689480355</v>
       </c>
       <c r="K34" t="n">
-        <v>314.504039115557</v>
+        <v>1028.16243951831</v>
       </c>
       <c r="L34" t="n">
-        <v>314.504039115557</v>
+        <v>1028.16243951831</v>
       </c>
       <c r="M34" t="n">
-        <v>314.504039115557</v>
+        <v>1028.16243951831</v>
       </c>
       <c r="N34" t="n">
-        <v>0.100762393239458</v>
+        <v>0.0307138625457111</v>
       </c>
       <c r="O34" t="n">
-        <v>0.100762393239458</v>
+        <v>0.0307456884998191</v>
       </c>
       <c r="P34" t="n">
-        <v>0.100762393239458</v>
+        <v>0.0307138625457111</v>
       </c>
       <c r="Q34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T34" t="s">
         <v>24</v>
@@ -12082,49 +12114,49 @@
         <v>50</v>
       </c>
       <c r="E35" t="n">
-        <v>12512</v>
+        <v>1044</v>
       </c>
       <c r="F35" t="n">
-        <v>12512</v>
+        <v>1044</v>
       </c>
       <c r="G35" t="n">
-        <v>12512</v>
+        <v>1044</v>
       </c>
       <c r="H35" t="n">
-        <v>0.614477949120911</v>
+        <v>0.659507264687303</v>
       </c>
       <c r="I35" t="n">
-        <v>0.615082096155737</v>
+        <v>0.659507264687303</v>
       </c>
       <c r="J35" t="n">
-        <v>0.614477949120911</v>
+        <v>0.659507264687303</v>
       </c>
       <c r="K35" t="n">
-        <v>967.441198801638</v>
+        <v>314.504039115557</v>
       </c>
       <c r="L35" t="n">
-        <v>967.441198801638</v>
+        <v>314.504039115557</v>
       </c>
       <c r="M35" t="n">
-        <v>967.441198801638</v>
+        <v>314.504039115557</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0346231103847859</v>
+        <v>0.100762393239458</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0346353266037282</v>
+        <v>0.100762393239458</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0346231103847859</v>
+        <v>0.100762393239458</v>
       </c>
       <c r="Q35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T35" t="s">
         <v>24</v>
@@ -12144,40 +12176,40 @@
         <v>50</v>
       </c>
       <c r="E36" t="n">
-        <v>14750</v>
+        <v>12512</v>
       </c>
       <c r="F36" t="n">
-        <v>14750</v>
+        <v>12512</v>
       </c>
       <c r="G36" t="n">
-        <v>14750</v>
+        <v>12512</v>
       </c>
       <c r="H36" t="n">
-        <v>0.584204689480355</v>
+        <v>0.614477949120911</v>
       </c>
       <c r="I36" t="n">
-        <v>0.584667829395909</v>
+        <v>0.615082096155737</v>
       </c>
       <c r="J36" t="n">
-        <v>0.584204689480355</v>
+        <v>0.614477949120911</v>
       </c>
       <c r="K36" t="n">
-        <v>1028.16243951831</v>
+        <v>967.441198801638</v>
       </c>
       <c r="L36" t="n">
-        <v>1028.16243951831</v>
+        <v>967.441198801638</v>
       </c>
       <c r="M36" t="n">
-        <v>1028.16243951831</v>
+        <v>967.441198801638</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0307138625457111</v>
+        <v>0.0346231103847859</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0307456884998191</v>
+        <v>0.0346353266037282</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0307138625457111</v>
+        <v>0.0346231103847859</v>
       </c>
       <c r="Q36" t="s">
         <v>26</v>
@@ -12826,40 +12858,40 @@
         <v>50</v>
       </c>
       <c r="E47" t="n">
-        <v>2299</v>
+        <v>43227</v>
       </c>
       <c r="F47" t="n">
-        <v>2299</v>
+        <v>43227</v>
       </c>
       <c r="G47" t="n">
-        <v>2299</v>
+        <v>43227</v>
       </c>
       <c r="H47" t="n">
-        <v>0.442540904716073</v>
+        <v>0.50793744051326</v>
       </c>
       <c r="I47" t="n">
-        <v>0.442540904716073</v>
+        <v>0.508672628853848</v>
       </c>
       <c r="J47" t="n">
-        <v>0.442540904716073</v>
+        <v>0.50793744051326</v>
       </c>
       <c r="K47" t="n">
-        <v>457.796731983748</v>
+        <v>1519.97879829498</v>
       </c>
       <c r="L47" t="n">
-        <v>457.796731983748</v>
+        <v>1519.97879829498</v>
       </c>
       <c r="M47" t="n">
-        <v>457.796731983748</v>
+        <v>1519.97879829498</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0628996777921312</v>
+        <v>0.0144146410273988</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0628996777921312</v>
+        <v>0.0143872832919444</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0628996777921312</v>
+        <v>0.0144146410273988</v>
       </c>
       <c r="Q47" t="s">
         <v>26</v>
@@ -12888,40 +12920,40 @@
         <v>50</v>
       </c>
       <c r="E48" t="n">
-        <v>34349</v>
+        <v>2299</v>
       </c>
       <c r="F48" t="n">
-        <v>34349</v>
+        <v>2299</v>
       </c>
       <c r="G48" t="n">
-        <v>34349</v>
+        <v>2299</v>
       </c>
       <c r="H48" t="n">
-        <v>0.567958596514435</v>
+        <v>0.442540904716073</v>
       </c>
       <c r="I48" t="n">
-        <v>0.568644979720222</v>
+        <v>0.442540904716073</v>
       </c>
       <c r="J48" t="n">
-        <v>0.567958596514435</v>
+        <v>0.442540904716073</v>
       </c>
       <c r="K48" t="n">
-        <v>1312.80925282674</v>
+        <v>457.796731983748</v>
       </c>
       <c r="L48" t="n">
-        <v>1312.80925282674</v>
+        <v>457.796731983748</v>
       </c>
       <c r="M48" t="n">
-        <v>1312.80925282674</v>
+        <v>457.796731983748</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0160970797145522</v>
+        <v>0.0628996777921312</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0160566645145478</v>
+        <v>0.0628996777921312</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0160970797145522</v>
+        <v>0.0628996777921312</v>
       </c>
       <c r="Q48" t="s">
         <v>26</v>
@@ -12950,40 +12982,40 @@
         <v>50</v>
       </c>
       <c r="E49" t="n">
-        <v>43227</v>
+        <v>34349</v>
       </c>
       <c r="F49" t="n">
-        <v>43227</v>
+        <v>34349</v>
       </c>
       <c r="G49" t="n">
-        <v>43227</v>
+        <v>34349</v>
       </c>
       <c r="H49" t="n">
-        <v>0.50793744051326</v>
+        <v>0.567958596514435</v>
       </c>
       <c r="I49" t="n">
-        <v>0.508672628853848</v>
+        <v>0.568644979720222</v>
       </c>
       <c r="J49" t="n">
-        <v>0.50793744051326</v>
+        <v>0.567958596514435</v>
       </c>
       <c r="K49" t="n">
-        <v>1519.97879829498</v>
+        <v>1312.80925282674</v>
       </c>
       <c r="L49" t="n">
-        <v>1519.97879829498</v>
+        <v>1312.80925282674</v>
       </c>
       <c r="M49" t="n">
-        <v>1519.97879829498</v>
+        <v>1312.80925282674</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0144146410273988</v>
+        <v>0.0160970797145522</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0143872832919444</v>
+        <v>0.0160566645145478</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0144146410273988</v>
+        <v>0.0160970797145522</v>
       </c>
       <c r="Q49" t="s">
         <v>26</v>
@@ -13502,56 +13534,26 @@
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
         <v>50</v>
       </c>
-      <c r="E58" t="n">
-        <v>219</v>
-      </c>
-      <c r="F58" t="n">
-        <v>219</v>
-      </c>
-      <c r="G58" t="n">
-        <v>219</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.384885764499121</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.384885764499121</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.384885764499121</v>
-      </c>
-      <c r="K58" t="n">
-        <v>130.865410704089</v>
-      </c>
-      <c r="L58" t="n">
-        <v>130.865410704089</v>
-      </c>
-      <c r="M58" t="n">
-        <v>130.865410704089</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.183116547771441</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.183116547771441</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.183116547771441</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>30</v>
-      </c>
-      <c r="R58" t="s">
-        <v>30</v>
-      </c>
-      <c r="S58" t="s">
-        <v>30</v>
-      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
       <c r="T58" t="s">
         <v>24</v>
       </c>
@@ -13564,55 +13566,55 @@
         <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
         <v>50</v>
       </c>
       <c r="E59" t="n">
-        <v>1554</v>
+        <v>219</v>
       </c>
       <c r="F59" t="n">
-        <v>1554</v>
+        <v>219</v>
       </c>
       <c r="G59" t="n">
-        <v>1554</v>
+        <v>219</v>
       </c>
       <c r="H59" t="n">
-        <v>0.455852156057495</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="I59" t="n">
-        <v>0.455852156057495</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="J59" t="n">
-        <v>0.455852156057495</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="K59" t="n">
-        <v>398.852461461315</v>
+        <v>130.865410704089</v>
       </c>
       <c r="L59" t="n">
-        <v>398.852461461315</v>
+        <v>130.865410704089</v>
       </c>
       <c r="M59" t="n">
-        <v>398.852461461315</v>
+        <v>130.865410704089</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="O59" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="Q59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T59" t="s">
         <v>24</v>
@@ -13626,46 +13628,46 @@
         <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
         <v>50</v>
       </c>
       <c r="E60" t="n">
-        <v>31936</v>
+        <v>39387</v>
       </c>
       <c r="F60" t="n">
-        <v>31936</v>
+        <v>39374</v>
       </c>
       <c r="G60" t="n">
-        <v>31936</v>
+        <v>39387</v>
       </c>
       <c r="H60" t="n">
-        <v>0.568762243989314</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="I60" t="n">
-        <v>0.569005452018672</v>
+        <v>0.546489194853502</v>
       </c>
       <c r="J60" t="n">
-        <v>0.568762243989314</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="K60" t="n">
-        <v>1583.12354872535</v>
+        <v>1809.53540454</v>
       </c>
       <c r="L60" t="n">
-        <v>1583.12354872535</v>
+        <v>1805.82339111519</v>
       </c>
       <c r="M60" t="n">
-        <v>1583.12354872535</v>
+        <v>1809.53540454</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0211868506395508</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0211536420417412</v>
+        <v>0.0194057161155801</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0211868506395508</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="Q60" t="s">
         <v>26</v>
@@ -13688,55 +13690,55 @@
         <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
         <v>50</v>
       </c>
       <c r="E61" t="n">
-        <v>39387</v>
+        <v>1554</v>
       </c>
       <c r="F61" t="n">
-        <v>39374</v>
+        <v>1554</v>
       </c>
       <c r="G61" t="n">
-        <v>39387</v>
+        <v>1554</v>
       </c>
       <c r="H61" t="n">
-        <v>0.545662353495331</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="I61" t="n">
-        <v>0.546489194853502</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="J61" t="n">
-        <v>0.545662353495331</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="K61" t="n">
-        <v>1809.53540454</v>
+        <v>398.852461461315</v>
       </c>
       <c r="L61" t="n">
-        <v>1805.82339111519</v>
+        <v>398.852461461315</v>
       </c>
       <c r="M61" t="n">
-        <v>1809.53540454</v>
+        <v>398.852461461315</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0194057161155801</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="Q61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T61" t="s">
         <v>24</v>
@@ -13750,55 +13752,55 @@
         <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
         <v>50</v>
       </c>
       <c r="E62" t="n">
-        <v>1554</v>
+        <v>31936</v>
       </c>
       <c r="F62" t="n">
-        <v>1554</v>
+        <v>31936</v>
       </c>
       <c r="G62" t="n">
-        <v>1554</v>
+        <v>31936</v>
       </c>
       <c r="H62" t="n">
-        <v>0.455852156057495</v>
+        <v>0.568762243989314</v>
       </c>
       <c r="I62" t="n">
-        <v>0.455852156057495</v>
+        <v>0.569005452018672</v>
       </c>
       <c r="J62" t="n">
-        <v>0.455852156057495</v>
+        <v>0.568762243989314</v>
       </c>
       <c r="K62" t="n">
-        <v>398.852461461315</v>
+        <v>1583.12354872535</v>
       </c>
       <c r="L62" t="n">
-        <v>398.852461461315</v>
+        <v>1583.12354872535</v>
       </c>
       <c r="M62" t="n">
-        <v>398.852461461315</v>
+        <v>1583.12354872535</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.0211868506395508</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.0211536420417412</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.0211868506395508</v>
       </c>
       <c r="Q62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T62" t="s">
         <v>24</v>
@@ -13812,55 +13814,55 @@
         <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
         <v>50</v>
       </c>
       <c r="E63" t="n">
-        <v>37833</v>
+        <v>1554</v>
       </c>
       <c r="F63" t="n">
-        <v>37820</v>
+        <v>1554</v>
       </c>
       <c r="G63" t="n">
-        <v>37833</v>
+        <v>1554</v>
       </c>
       <c r="H63" t="n">
-        <v>0.550114143631949</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="I63" t="n">
-        <v>0.550990675990676</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="J63" t="n">
-        <v>0.550114143631949</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="K63" t="n">
-        <v>1816.67211837263</v>
+        <v>398.852461461315</v>
       </c>
       <c r="L63" t="n">
-        <v>1812.88374167788</v>
+        <v>398.852461461315</v>
       </c>
       <c r="M63" t="n">
-        <v>1816.67211837263</v>
+        <v>398.852461461315</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0206838997758817</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0204756514200509</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0206838997758817</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="Q63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T63" t="s">
         <v>24</v>
@@ -13874,46 +13876,46 @@
         <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
         <v>50</v>
       </c>
       <c r="E64" t="n">
-        <v>39387</v>
+        <v>37833</v>
       </c>
       <c r="F64" t="n">
-        <v>39374</v>
+        <v>37820</v>
       </c>
       <c r="G64" t="n">
-        <v>39387</v>
+        <v>37833</v>
       </c>
       <c r="H64" t="n">
-        <v>0.545662353495331</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="I64" t="n">
-        <v>0.546489194853502</v>
+        <v>0.550990675990676</v>
       </c>
       <c r="J64" t="n">
-        <v>0.545662353495331</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="K64" t="n">
-        <v>1809.53540454</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="L64" t="n">
-        <v>1805.82339111519</v>
+        <v>1812.88374167788</v>
       </c>
       <c r="M64" t="n">
-        <v>1809.53540454</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0194057161155801</v>
+        <v>0.0204756514200509</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="Q64" t="s">
         <v>26</v>
@@ -13936,57 +13938,119 @@
         <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>50</v>
       </c>
       <c r="E65" t="n">
+        <v>39387</v>
+      </c>
+      <c r="F65" t="n">
+        <v>39374</v>
+      </c>
+      <c r="G65" t="n">
+        <v>39387</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.545662353495331</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.546489194853502</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.545662353495331</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1809.53540454</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1805.82339111519</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1809.53540454</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0196297044202006</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0194057161155801</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.0196297044202006</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>26</v>
+      </c>
+      <c r="R65" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65" t="s">
+        <v>26</v>
+      </c>
+      <c r="T65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66" t="n">
         <v>7451</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F66" t="n">
         <v>7438</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G66" t="n">
         <v>7451</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H66" t="n">
         <v>0.464757984031936</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I66" t="n">
         <v>0.467123029579853</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J66" t="n">
         <v>0.464757984031936</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K66" t="n">
         <v>903.529783524041</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L66" t="n">
         <v>900.154160944113</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M66" t="n">
         <v>903.529783524041</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N66" t="n">
         <v>0.0373840028183127</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O66" t="n">
         <v>0.0364220347435384</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P66" t="n">
         <v>0.0373840028183127</v>
       </c>
-      <c r="Q65" t="s">
-        <v>26</v>
-      </c>
-      <c r="R65" t="s">
-        <v>26</v>
-      </c>
-      <c r="S65" t="s">
-        <v>26</v>
-      </c>
-      <c r="T65" t="s">
+      <c r="Q66" t="s">
+        <v>26</v>
+      </c>
+      <c r="R66" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T66" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14452,40 +14516,40 @@
         <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>38084</v>
+        <v>829150</v>
       </c>
       <c r="F8" t="n">
-        <v>12024</v>
+        <v>829083</v>
       </c>
       <c r="G8" t="n">
-        <v>11312</v>
+        <v>829150</v>
       </c>
       <c r="H8" t="n">
-        <v>0.579356507187952</v>
+        <v>0.676343673782353</v>
       </c>
       <c r="I8" t="n">
-        <v>0.531400539178857</v>
+        <v>0.676359088695329</v>
       </c>
       <c r="J8" t="n">
-        <v>0.555462803830101</v>
+        <v>0.676343673782353</v>
       </c>
       <c r="K8" t="n">
-        <v>1707.53313760817</v>
+        <v>7216.77150203564</v>
       </c>
       <c r="L8" t="n">
-        <v>1088.35573239693</v>
+        <v>7220.51463434957</v>
       </c>
       <c r="M8" t="n">
-        <v>998.978310963256</v>
+        <v>7216.77150203564</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0185342065852263</v>
+        <v>0.00431158147079006</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0362820764610204</v>
+        <v>0.00431465110000509</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0371062092769635</v>
+        <v>0.00431158147079006</v>
       </c>
       <c r="Q8" t="s">
         <v>26</v>
@@ -14514,40 +14578,40 @@
         <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>582438</v>
+        <v>38084</v>
       </c>
       <c r="F9" t="n">
-        <v>490555</v>
+        <v>12024</v>
       </c>
       <c r="G9" t="n">
-        <v>479146</v>
+        <v>11312</v>
       </c>
       <c r="H9" t="n">
-        <v>0.733659074848749</v>
+        <v>0.579356507187952</v>
       </c>
       <c r="I9" t="n">
-        <v>0.748327701800819</v>
+        <v>0.531400539178857</v>
       </c>
       <c r="J9" t="n">
-        <v>0.75317526188051</v>
+        <v>0.555462803830101</v>
       </c>
       <c r="K9" t="n">
-        <v>5780.97019862745</v>
+        <v>1707.53313760817</v>
       </c>
       <c r="L9" t="n">
-        <v>4942.4094807739</v>
+        <v>1088.35573239693</v>
       </c>
       <c r="M9" t="n">
-        <v>4883.78179239025</v>
+        <v>998.978310963256</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00513552649232297</v>
+        <v>0.0185342065852263</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00517997009221044</v>
+        <v>0.0362820764610204</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00513371417759385</v>
+        <v>0.0371062092769635</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
@@ -14576,40 +14640,40 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>829150</v>
+        <v>582438</v>
       </c>
       <c r="F10" t="n">
-        <v>829083</v>
+        <v>490555</v>
       </c>
       <c r="G10" t="n">
-        <v>829150</v>
+        <v>479146</v>
       </c>
       <c r="H10" t="n">
-        <v>0.676343673782353</v>
+        <v>0.733659074848749</v>
       </c>
       <c r="I10" t="n">
-        <v>0.676359088695329</v>
+        <v>0.748327701800819</v>
       </c>
       <c r="J10" t="n">
-        <v>0.676343673782353</v>
+        <v>0.75317526188051</v>
       </c>
       <c r="K10" t="n">
-        <v>7216.77150203564</v>
+        <v>5780.97019862745</v>
       </c>
       <c r="L10" t="n">
-        <v>7220.51463434957</v>
+        <v>4942.4094807739</v>
       </c>
       <c r="M10" t="n">
-        <v>7216.77150203564</v>
+        <v>4883.78179239025</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00431158147079006</v>
+        <v>0.00513552649232297</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00431465110000509</v>
+        <v>0.00517997009221044</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00431158147079006</v>
+        <v>0.00513371417759385</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -15414,40 +15478,40 @@
         <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>17162</v>
+        <v>415040</v>
       </c>
       <c r="F24" t="n">
-        <v>5476</v>
+        <v>414998</v>
       </c>
       <c r="G24" t="n">
-        <v>5126</v>
+        <v>415040</v>
       </c>
       <c r="H24" t="n">
-        <v>0.537572435395458</v>
+        <v>0.645808793667638</v>
       </c>
       <c r="I24" t="n">
-        <v>0.514661654135338</v>
+        <v>0.645845945546365</v>
       </c>
       <c r="J24" t="n">
-        <v>0.533735943356935</v>
+        <v>0.645808793667638</v>
       </c>
       <c r="K24" t="n">
-        <v>1161.73785321603</v>
+        <v>4681.97936653532</v>
       </c>
       <c r="L24" t="n">
-        <v>796.002139999479</v>
+        <v>4680.78666842391</v>
       </c>
       <c r="M24" t="n">
-        <v>740.323564400222</v>
+        <v>4681.97936653532</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0301034581210073</v>
+        <v>0.00587309302530072</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0579712491106331</v>
+        <v>0.00587152730530649</v>
       </c>
       <c r="P24" t="n">
-        <v>0.056795974237296</v>
+        <v>0.00587309302530072</v>
       </c>
       <c r="Q24" t="s">
         <v>26</v>
@@ -15476,40 +15540,40 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>273623</v>
+        <v>17162</v>
       </c>
       <c r="F25" t="n">
-        <v>228100</v>
+        <v>5476</v>
       </c>
       <c r="G25" t="n">
-        <v>223822</v>
+        <v>5126</v>
       </c>
       <c r="H25" t="n">
-        <v>0.713235984109937</v>
+        <v>0.537572435395458</v>
       </c>
       <c r="I25" t="n">
-        <v>0.732940889168798</v>
+        <v>0.514661654135338</v>
       </c>
       <c r="J25" t="n">
-        <v>0.736012048628581</v>
+        <v>0.533735943356935</v>
       </c>
       <c r="K25" t="n">
-        <v>3501.63101872328</v>
+        <v>1161.73785321603</v>
       </c>
       <c r="L25" t="n">
-        <v>2858.80240349587</v>
+        <v>796.002139999479</v>
       </c>
       <c r="M25" t="n">
-        <v>2846.58473521165</v>
+        <v>740.323564400222</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00712822845539553</v>
+        <v>0.0301034581210073</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00769222567745673</v>
+        <v>0.0579712491106331</v>
       </c>
       <c r="P25" t="n">
-        <v>0.00776891718295308</v>
+        <v>0.056795974237296</v>
       </c>
       <c r="Q25" t="s">
         <v>26</v>
@@ -15538,40 +15602,40 @@
         <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>415040</v>
+        <v>273623</v>
       </c>
       <c r="F26" t="n">
-        <v>414998</v>
+        <v>228100</v>
       </c>
       <c r="G26" t="n">
-        <v>415040</v>
+        <v>223822</v>
       </c>
       <c r="H26" t="n">
-        <v>0.645808793667638</v>
+        <v>0.713235984109937</v>
       </c>
       <c r="I26" t="n">
-        <v>0.645845945546365</v>
+        <v>0.732940889168798</v>
       </c>
       <c r="J26" t="n">
-        <v>0.645808793667638</v>
+        <v>0.736012048628581</v>
       </c>
       <c r="K26" t="n">
-        <v>4681.97936653532</v>
+        <v>3501.63101872328</v>
       </c>
       <c r="L26" t="n">
-        <v>4680.78666842391</v>
+        <v>2858.80240349587</v>
       </c>
       <c r="M26" t="n">
-        <v>4681.97936653532</v>
+        <v>2846.58473521165</v>
       </c>
       <c r="N26" t="n">
-        <v>0.00587309302530072</v>
+        <v>0.00712822845539553</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00587152730530649</v>
+        <v>0.00769222567745673</v>
       </c>
       <c r="P26" t="n">
-        <v>0.00587309302530072</v>
+        <v>0.00776891718295308</v>
       </c>
       <c r="Q26" t="s">
         <v>26</v>
@@ -16376,40 +16440,40 @@
         <v>50</v>
       </c>
       <c r="E40" t="n">
-        <v>2370</v>
+        <v>60291</v>
       </c>
       <c r="F40" t="n">
-        <v>799</v>
+        <v>60291</v>
       </c>
       <c r="G40" t="n">
-        <v>773</v>
+        <v>60291</v>
       </c>
       <c r="H40" t="n">
-        <v>0.568345323741007</v>
+        <v>0.735112660944206</v>
       </c>
       <c r="I40" t="n">
-        <v>0.52462245567958</v>
+        <v>0.735112660944206</v>
       </c>
       <c r="J40" t="n">
-        <v>0.558526011560694</v>
+        <v>0.735112660944206</v>
       </c>
       <c r="K40" t="n">
-        <v>317.828091173121</v>
+        <v>1473.38748192728</v>
       </c>
       <c r="L40" t="n">
-        <v>189.873906771046</v>
+        <v>1473.38748192728</v>
       </c>
       <c r="M40" t="n">
-        <v>187.389256395611</v>
+        <v>1473.38748192728</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0632162462825805</v>
+        <v>0.0142670278424646</v>
       </c>
       <c r="O40" t="n">
-        <v>0.107098370565685</v>
+        <v>0.0142670278424646</v>
       </c>
       <c r="P40" t="n">
-        <v>0.11371306243074</v>
+        <v>0.0142670278424646</v>
       </c>
       <c r="Q40" t="s">
         <v>26</v>
@@ -16438,40 +16502,40 @@
         <v>50</v>
       </c>
       <c r="E41" t="n">
-        <v>50241</v>
+        <v>2370</v>
       </c>
       <c r="F41" t="n">
-        <v>43009</v>
+        <v>799</v>
       </c>
       <c r="G41" t="n">
-        <v>41904</v>
+        <v>773</v>
       </c>
       <c r="H41" t="n">
-        <v>0.77609058329214</v>
+        <v>0.568345323741007</v>
       </c>
       <c r="I41" t="n">
-        <v>0.782109799785419</v>
+        <v>0.52462245567958</v>
       </c>
       <c r="J41" t="n">
-        <v>0.788766329104393</v>
+        <v>0.558526011560694</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.54951599484</v>
+        <v>317.828091173121</v>
       </c>
       <c r="L41" t="n">
-        <v>1434.85722601937</v>
+        <v>189.873906771046</v>
       </c>
       <c r="M41" t="n">
-        <v>1368.95848397787</v>
+        <v>187.389256395611</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0169516233216178</v>
+        <v>0.0632162462825805</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0178374789636323</v>
+        <v>0.107098370565685</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0173281132053233</v>
+        <v>0.11371306243074</v>
       </c>
       <c r="Q41" t="s">
         <v>26</v>
@@ -16500,40 +16564,40 @@
         <v>50</v>
       </c>
       <c r="E42" t="n">
-        <v>60291</v>
+        <v>50241</v>
       </c>
       <c r="F42" t="n">
-        <v>60291</v>
+        <v>43009</v>
       </c>
       <c r="G42" t="n">
-        <v>60291</v>
+        <v>41904</v>
       </c>
       <c r="H42" t="n">
-        <v>0.735112660944206</v>
+        <v>0.77609058329214</v>
       </c>
       <c r="I42" t="n">
-        <v>0.735112660944206</v>
+        <v>0.782109799785419</v>
       </c>
       <c r="J42" t="n">
-        <v>0.735112660944206</v>
+        <v>0.788766329104393</v>
       </c>
       <c r="K42" t="n">
-        <v>1473.38748192728</v>
+        <v>1365.54951599484</v>
       </c>
       <c r="L42" t="n">
-        <v>1473.38748192728</v>
+        <v>1434.85722601937</v>
       </c>
       <c r="M42" t="n">
-        <v>1473.38748192728</v>
+        <v>1368.95848397787</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0142670278424646</v>
+        <v>0.0169516233216178</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0142670278424646</v>
+        <v>0.0178374789636323</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0142670278424646</v>
+        <v>0.0173281132053233</v>
       </c>
       <c r="Q42" t="s">
         <v>26</v>
@@ -17338,40 +17402,40 @@
         <v>50</v>
       </c>
       <c r="E56" t="n">
-        <v>10936</v>
+        <v>180761</v>
       </c>
       <c r="F56" t="n">
-        <v>3020</v>
+        <v>180736</v>
       </c>
       <c r="G56" t="n">
-        <v>2818</v>
+        <v>180761</v>
       </c>
       <c r="H56" t="n">
-        <v>0.583253333333333</v>
+        <v>0.690977133202346</v>
       </c>
       <c r="I56" t="n">
-        <v>0.464973056197075</v>
+        <v>0.690947598603853</v>
       </c>
       <c r="J56" t="n">
-        <v>0.495603236018291</v>
+        <v>0.690977133202346</v>
       </c>
       <c r="K56" t="n">
-        <v>1131.13607892961</v>
+        <v>2666.91702717881</v>
       </c>
       <c r="L56" t="n">
-        <v>540.656597151787</v>
+        <v>2667.7389306609</v>
       </c>
       <c r="M56" t="n">
-        <v>505.749491530886</v>
+        <v>2666.91702717881</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0413064543501138</v>
+        <v>0.00813933248704199</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0633528326772123</v>
+        <v>0.00814217060961465</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0722201027808078</v>
+        <v>0.00813933248704199</v>
       </c>
       <c r="Q56" t="s">
         <v>26</v>
@@ -17400,40 +17464,40 @@
         <v>50</v>
       </c>
       <c r="E57" t="n">
-        <v>133736</v>
+        <v>10936</v>
       </c>
       <c r="F57" t="n">
-        <v>111965</v>
+        <v>3020</v>
       </c>
       <c r="G57" t="n">
-        <v>108663</v>
+        <v>2818</v>
       </c>
       <c r="H57" t="n">
-        <v>0.745874256139118</v>
+        <v>0.583253333333333</v>
       </c>
       <c r="I57" t="n">
-        <v>0.758108199607285</v>
+        <v>0.464973056197075</v>
       </c>
       <c r="J57" t="n">
-        <v>0.765291677524315</v>
+        <v>0.495603236018291</v>
       </c>
       <c r="K57" t="n">
-        <v>2094.95926486889</v>
+        <v>1131.13607892961</v>
       </c>
       <c r="L57" t="n">
-        <v>1959.52010568787</v>
+        <v>540.656597151787</v>
       </c>
       <c r="M57" t="n">
-        <v>1962.15679988247</v>
+        <v>505.749491530886</v>
       </c>
       <c r="N57" t="n">
-        <v>0.00935401935272927</v>
+        <v>0.0413064543501138</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0098523680730598</v>
+        <v>0.0633528326772123</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0101304697597472</v>
+        <v>0.0722201027808078</v>
       </c>
       <c r="Q57" t="s">
         <v>26</v>
@@ -17462,40 +17526,40 @@
         <v>50</v>
       </c>
       <c r="E58" t="n">
-        <v>180761</v>
+        <v>133736</v>
       </c>
       <c r="F58" t="n">
-        <v>180736</v>
+        <v>111965</v>
       </c>
       <c r="G58" t="n">
-        <v>180761</v>
+        <v>108663</v>
       </c>
       <c r="H58" t="n">
-        <v>0.690977133202346</v>
+        <v>0.745874256139118</v>
       </c>
       <c r="I58" t="n">
-        <v>0.690947598603853</v>
+        <v>0.758108199607285</v>
       </c>
       <c r="J58" t="n">
-        <v>0.690977133202346</v>
+        <v>0.765291677524315</v>
       </c>
       <c r="K58" t="n">
-        <v>2666.91702717881</v>
+        <v>2094.95926486889</v>
       </c>
       <c r="L58" t="n">
-        <v>2667.7389306609</v>
+        <v>1959.52010568787</v>
       </c>
       <c r="M58" t="n">
-        <v>2666.91702717881</v>
+        <v>1962.15679988247</v>
       </c>
       <c r="N58" t="n">
-        <v>0.00813933248704199</v>
+        <v>0.00935401935272927</v>
       </c>
       <c r="O58" t="n">
-        <v>0.00814217060961465</v>
+        <v>0.0098523680730598</v>
       </c>
       <c r="P58" t="n">
-        <v>0.00813933248704199</v>
+        <v>0.0101304697597472</v>
       </c>
       <c r="Q58" t="s">
         <v>26</v>
@@ -18300,40 +18364,40 @@
         <v>50</v>
       </c>
       <c r="E72" t="n">
-        <v>7616</v>
+        <v>173058</v>
       </c>
       <c r="F72" t="n">
-        <v>2729</v>
+        <v>173058</v>
       </c>
       <c r="G72" t="n">
-        <v>2595</v>
+        <v>173058</v>
       </c>
       <c r="H72" t="n">
-        <v>0.699357208448118</v>
+        <v>0.722143170105781</v>
       </c>
       <c r="I72" t="n">
-        <v>0.687578735197783</v>
+        <v>0.722143170105781</v>
       </c>
       <c r="J72" t="n">
-        <v>0.703061500948252</v>
+        <v>0.722143170105781</v>
       </c>
       <c r="K72" t="n">
-        <v>762.493965956453</v>
+        <v>2899.96858243456</v>
       </c>
       <c r="L72" t="n">
-        <v>539.057614818444</v>
+        <v>2899.96858243456</v>
       </c>
       <c r="M72" t="n">
-        <v>535.172883879593</v>
+        <v>2899.96858243456</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0387834571797512</v>
+        <v>0.00817356793146456</v>
       </c>
       <c r="O72" t="n">
-        <v>0.0681236877683524</v>
+        <v>0.00817356793146456</v>
       </c>
       <c r="P72" t="n">
-        <v>0.0701202060712853</v>
+        <v>0.00817356793146456</v>
       </c>
       <c r="Q72" t="s">
         <v>26</v>
@@ -18362,40 +18426,40 @@
         <v>50</v>
       </c>
       <c r="E73" t="n">
-        <v>124838</v>
+        <v>7616</v>
       </c>
       <c r="F73" t="n">
-        <v>107481</v>
+        <v>2729</v>
       </c>
       <c r="G73" t="n">
-        <v>104757</v>
+        <v>2595</v>
       </c>
       <c r="H73" t="n">
-        <v>0.751095013477089</v>
+        <v>0.699357208448118</v>
       </c>
       <c r="I73" t="n">
-        <v>0.758821535985089</v>
+        <v>0.687578735197783</v>
       </c>
       <c r="J73" t="n">
-        <v>0.764917635375898</v>
+        <v>0.703061500948252</v>
       </c>
       <c r="K73" t="n">
-        <v>2327.65291155597</v>
+        <v>762.493965956453</v>
       </c>
       <c r="L73" t="n">
-        <v>1936.966230138</v>
+        <v>539.057614818444</v>
       </c>
       <c r="M73" t="n">
-        <v>1962.06584564013</v>
+        <v>535.172883879593</v>
       </c>
       <c r="N73" t="n">
-        <v>0.00969946616300276</v>
+        <v>0.0387834571797512</v>
       </c>
       <c r="O73" t="n">
-        <v>0.00934838384070301</v>
+        <v>0.0681236877683524</v>
       </c>
       <c r="P73" t="n">
-        <v>0.00964176922865296</v>
+        <v>0.0701202060712853</v>
       </c>
       <c r="Q73" t="s">
         <v>26</v>
@@ -18424,40 +18488,40 @@
         <v>50</v>
       </c>
       <c r="E74" t="n">
-        <v>173058</v>
+        <v>124838</v>
       </c>
       <c r="F74" t="n">
-        <v>173058</v>
+        <v>107481</v>
       </c>
       <c r="G74" t="n">
-        <v>173058</v>
+        <v>104757</v>
       </c>
       <c r="H74" t="n">
-        <v>0.722143170105781</v>
+        <v>0.751095013477089</v>
       </c>
       <c r="I74" t="n">
-        <v>0.722143170105781</v>
+        <v>0.758821535985089</v>
       </c>
       <c r="J74" t="n">
-        <v>0.722143170105781</v>
+        <v>0.764917635375898</v>
       </c>
       <c r="K74" t="n">
-        <v>2899.96858243456</v>
+        <v>2327.65291155597</v>
       </c>
       <c r="L74" t="n">
-        <v>2899.96858243456</v>
+        <v>1936.966230138</v>
       </c>
       <c r="M74" t="n">
-        <v>2899.96858243456</v>
+        <v>1962.06584564013</v>
       </c>
       <c r="N74" t="n">
-        <v>0.00817356793146456</v>
+        <v>0.00969946616300276</v>
       </c>
       <c r="O74" t="n">
-        <v>0.00817356793146456</v>
+        <v>0.00934838384070301</v>
       </c>
       <c r="P74" t="n">
-        <v>0.00817356793146456</v>
+        <v>0.00964176922865296</v>
       </c>
       <c r="Q74" t="s">
         <v>26</v>
@@ -19338,40 +19402,40 @@
         <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>9712</v>
+        <v>202528</v>
       </c>
       <c r="F8" t="n">
-        <v>9712</v>
+        <v>202515</v>
       </c>
       <c r="G8" t="n">
-        <v>9712</v>
+        <v>202528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.350120768592956</v>
+        <v>0.433041756559408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.350120768592956</v>
+        <v>0.43352192816271</v>
       </c>
       <c r="J8" t="n">
-        <v>0.350120768592956</v>
+        <v>0.433041756559408</v>
       </c>
       <c r="K8" t="n">
-        <v>1124.42813530868</v>
+        <v>4300.24954274095</v>
       </c>
       <c r="L8" t="n">
-        <v>1124.42813530868</v>
+        <v>4303.22003176125</v>
       </c>
       <c r="M8" t="n">
-        <v>1124.42813530868</v>
+        <v>4300.24954274095</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0315349414690478</v>
+        <v>0.00772240635196667</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0315349414690478</v>
+        <v>0.00775590540378138</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0315349414690478</v>
+        <v>0.00772240635196667</v>
       </c>
       <c r="Q8" t="s">
         <v>26</v>
@@ -19400,40 +19464,40 @@
         <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>154977</v>
+        <v>9712</v>
       </c>
       <c r="F9" t="n">
-        <v>154977</v>
+        <v>9712</v>
       </c>
       <c r="G9" t="n">
-        <v>154977</v>
+        <v>9712</v>
       </c>
       <c r="H9" t="n">
-        <v>0.489090094297941</v>
+        <v>0.350120768592956</v>
       </c>
       <c r="I9" t="n">
-        <v>0.489616999497673</v>
+        <v>0.350120768592956</v>
       </c>
       <c r="J9" t="n">
-        <v>0.489090094297941</v>
+        <v>0.350120768592956</v>
       </c>
       <c r="K9" t="n">
-        <v>3482.89617388622</v>
+        <v>1124.42813530868</v>
       </c>
       <c r="L9" t="n">
-        <v>3482.89617388622</v>
+        <v>1124.42813530868</v>
       </c>
       <c r="M9" t="n">
-        <v>3482.89617388622</v>
+        <v>1124.42813530868</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00947604204677427</v>
+        <v>0.0315349414690478</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00944995730647364</v>
+        <v>0.0315349414690478</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00947604204677427</v>
+        <v>0.0315349414690478</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
@@ -19462,40 +19526,40 @@
         <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>202528</v>
+        <v>154977</v>
       </c>
       <c r="F10" t="n">
-        <v>202515</v>
+        <v>154977</v>
       </c>
       <c r="G10" t="n">
-        <v>202528</v>
+        <v>154977</v>
       </c>
       <c r="H10" t="n">
-        <v>0.433041756559408</v>
+        <v>0.489090094297941</v>
       </c>
       <c r="I10" t="n">
-        <v>0.43352192816271</v>
+        <v>0.489616999497673</v>
       </c>
       <c r="J10" t="n">
-        <v>0.433041756559408</v>
+        <v>0.489090094297941</v>
       </c>
       <c r="K10" t="n">
-        <v>4300.24954274095</v>
+        <v>3482.89617388622</v>
       </c>
       <c r="L10" t="n">
-        <v>4303.22003176125</v>
+        <v>3482.89617388622</v>
       </c>
       <c r="M10" t="n">
-        <v>4300.24954274095</v>
+        <v>3482.89617388622</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00772240635196667</v>
+        <v>0.00947604204677427</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00775590540378138</v>
+        <v>0.00944995730647364</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00772240635196667</v>
+        <v>0.00947604204677427</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -20144,40 +20208,40 @@
         <v>52</v>
       </c>
       <c r="E21" t="n">
-        <v>4815</v>
+        <v>105164</v>
       </c>
       <c r="F21" t="n">
-        <v>4815</v>
+        <v>105164</v>
       </c>
       <c r="G21" t="n">
-        <v>4815</v>
+        <v>105164</v>
       </c>
       <c r="H21" t="n">
-        <v>0.274327711941659</v>
+        <v>0.368797211331421</v>
       </c>
       <c r="I21" t="n">
-        <v>0.274327711941659</v>
+        <v>0.369149332004128</v>
       </c>
       <c r="J21" t="n">
-        <v>0.274327711941659</v>
+        <v>0.368797211331421</v>
       </c>
       <c r="K21" t="n">
-        <v>786.763276778664</v>
+        <v>2892.17853986402</v>
       </c>
       <c r="L21" t="n">
-        <v>786.763276778664</v>
+        <v>2892.17853986402</v>
       </c>
       <c r="M21" t="n">
-        <v>786.763276778664</v>
+        <v>2892.17853986402</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0355531673900154</v>
+        <v>0.00963467645794475</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0355531673900154</v>
+        <v>0.00965772791480091</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0355531673900154</v>
+        <v>0.00963467645794475</v>
       </c>
       <c r="Q21" t="s">
         <v>26</v>
@@ -20206,40 +20270,40 @@
         <v>52</v>
       </c>
       <c r="E22" t="n">
-        <v>76180</v>
+        <v>4815</v>
       </c>
       <c r="F22" t="n">
-        <v>76180</v>
+        <v>4815</v>
       </c>
       <c r="G22" t="n">
-        <v>76180</v>
+        <v>4815</v>
       </c>
       <c r="H22" t="n">
-        <v>0.423509267392344</v>
+        <v>0.274327711941659</v>
       </c>
       <c r="I22" t="n">
-        <v>0.424037316174424</v>
+        <v>0.274327711941659</v>
       </c>
       <c r="J22" t="n">
-        <v>0.423509267392344</v>
+        <v>0.274327711941659</v>
       </c>
       <c r="K22" t="n">
-        <v>2255.63408328041</v>
+        <v>786.763276778664</v>
       </c>
       <c r="L22" t="n">
-        <v>2255.63408328041</v>
+        <v>786.763276778664</v>
       </c>
       <c r="M22" t="n">
-        <v>2255.63408328041</v>
+        <v>786.763276778664</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0117746627686373</v>
+        <v>0.0355531673900154</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0118047800837128</v>
+        <v>0.0355531673900154</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0117746627686373</v>
+        <v>0.0355531673900154</v>
       </c>
       <c r="Q22" t="s">
         <v>26</v>
@@ -20268,40 +20332,40 @@
         <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>105164</v>
+        <v>76180</v>
       </c>
       <c r="F23" t="n">
-        <v>105164</v>
+        <v>76180</v>
       </c>
       <c r="G23" t="n">
-        <v>105164</v>
+        <v>76180</v>
       </c>
       <c r="H23" t="n">
-        <v>0.368797211331421</v>
+        <v>0.423509267392344</v>
       </c>
       <c r="I23" t="n">
-        <v>0.369149332004128</v>
+        <v>0.424037316174424</v>
       </c>
       <c r="J23" t="n">
-        <v>0.368797211331421</v>
+        <v>0.423509267392344</v>
       </c>
       <c r="K23" t="n">
-        <v>2892.17853986402</v>
+        <v>2255.63408328041</v>
       </c>
       <c r="L23" t="n">
-        <v>2892.17853986402</v>
+        <v>2255.63408328041</v>
       </c>
       <c r="M23" t="n">
-        <v>2892.17853986402</v>
+        <v>2255.63408328041</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00963467645794475</v>
+        <v>0.0117746627686373</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00965772791480091</v>
+        <v>0.0118047800837128</v>
       </c>
       <c r="P23" t="n">
-        <v>0.00963467645794475</v>
+        <v>0.0117746627686373</v>
       </c>
       <c r="Q23" t="s">
         <v>26</v>
@@ -20950,49 +21014,49 @@
         <v>52</v>
       </c>
       <c r="E34" t="n">
-        <v>1044</v>
+        <v>14750</v>
       </c>
       <c r="F34" t="n">
-        <v>1044</v>
+        <v>14750</v>
       </c>
       <c r="G34" t="n">
-        <v>1044</v>
+        <v>14750</v>
       </c>
       <c r="H34" t="n">
-        <v>0.659507264687303</v>
+        <v>0.584204689480355</v>
       </c>
       <c r="I34" t="n">
-        <v>0.659507264687303</v>
+        <v>0.584667829395909</v>
       </c>
       <c r="J34" t="n">
-        <v>0.659507264687303</v>
+        <v>0.584204689480355</v>
       </c>
       <c r="K34" t="n">
-        <v>314.504039115557</v>
+        <v>1028.16243951831</v>
       </c>
       <c r="L34" t="n">
-        <v>314.504039115557</v>
+        <v>1028.16243951831</v>
       </c>
       <c r="M34" t="n">
-        <v>314.504039115557</v>
+        <v>1028.16243951831</v>
       </c>
       <c r="N34" t="n">
-        <v>0.100762393239458</v>
+        <v>0.0307138625457111</v>
       </c>
       <c r="O34" t="n">
-        <v>0.100762393239458</v>
+        <v>0.0307456884998191</v>
       </c>
       <c r="P34" t="n">
-        <v>0.100762393239458</v>
+        <v>0.0307138625457111</v>
       </c>
       <c r="Q34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T34" t="s">
         <v>24</v>
@@ -21012,49 +21076,49 @@
         <v>52</v>
       </c>
       <c r="E35" t="n">
-        <v>12512</v>
+        <v>1044</v>
       </c>
       <c r="F35" t="n">
-        <v>12512</v>
+        <v>1044</v>
       </c>
       <c r="G35" t="n">
-        <v>12512</v>
+        <v>1044</v>
       </c>
       <c r="H35" t="n">
-        <v>0.614477949120911</v>
+        <v>0.659507264687303</v>
       </c>
       <c r="I35" t="n">
-        <v>0.615082096155737</v>
+        <v>0.659507264687303</v>
       </c>
       <c r="J35" t="n">
-        <v>0.614477949120911</v>
+        <v>0.659507264687303</v>
       </c>
       <c r="K35" t="n">
-        <v>967.441198801638</v>
+        <v>314.504039115557</v>
       </c>
       <c r="L35" t="n">
-        <v>967.441198801638</v>
+        <v>314.504039115557</v>
       </c>
       <c r="M35" t="n">
-        <v>967.441198801638</v>
+        <v>314.504039115557</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0346231103847859</v>
+        <v>0.100762393239458</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0346353266037282</v>
+        <v>0.100762393239458</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0346231103847859</v>
+        <v>0.100762393239458</v>
       </c>
       <c r="Q35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T35" t="s">
         <v>24</v>
@@ -21074,40 +21138,40 @@
         <v>52</v>
       </c>
       <c r="E36" t="n">
-        <v>14750</v>
+        <v>12512</v>
       </c>
       <c r="F36" t="n">
-        <v>14750</v>
+        <v>12512</v>
       </c>
       <c r="G36" t="n">
-        <v>14750</v>
+        <v>12512</v>
       </c>
       <c r="H36" t="n">
-        <v>0.584204689480355</v>
+        <v>0.614477949120911</v>
       </c>
       <c r="I36" t="n">
-        <v>0.584667829395909</v>
+        <v>0.615082096155737</v>
       </c>
       <c r="J36" t="n">
-        <v>0.584204689480355</v>
+        <v>0.614477949120911</v>
       </c>
       <c r="K36" t="n">
-        <v>1028.16243951831</v>
+        <v>967.441198801638</v>
       </c>
       <c r="L36" t="n">
-        <v>1028.16243951831</v>
+        <v>967.441198801638</v>
       </c>
       <c r="M36" t="n">
-        <v>1028.16243951831</v>
+        <v>967.441198801638</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0307138625457111</v>
+        <v>0.0346231103847859</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0307456884998191</v>
+        <v>0.0346353266037282</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0307138625457111</v>
+        <v>0.0346231103847859</v>
       </c>
       <c r="Q36" t="s">
         <v>26</v>
@@ -21756,40 +21820,40 @@
         <v>52</v>
       </c>
       <c r="E47" t="n">
-        <v>2299</v>
+        <v>43227</v>
       </c>
       <c r="F47" t="n">
-        <v>2299</v>
+        <v>43227</v>
       </c>
       <c r="G47" t="n">
-        <v>2299</v>
+        <v>43227</v>
       </c>
       <c r="H47" t="n">
-        <v>0.442540904716073</v>
+        <v>0.50793744051326</v>
       </c>
       <c r="I47" t="n">
-        <v>0.442540904716073</v>
+        <v>0.508672628853848</v>
       </c>
       <c r="J47" t="n">
-        <v>0.442540904716073</v>
+        <v>0.50793744051326</v>
       </c>
       <c r="K47" t="n">
-        <v>457.796731983748</v>
+        <v>1519.97879829498</v>
       </c>
       <c r="L47" t="n">
-        <v>457.796731983748</v>
+        <v>1519.97879829498</v>
       </c>
       <c r="M47" t="n">
-        <v>457.796731983748</v>
+        <v>1519.97879829498</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0628996777921312</v>
+        <v>0.0144146410273988</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0628996777921312</v>
+        <v>0.0143872832919444</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0628996777921312</v>
+        <v>0.0144146410273988</v>
       </c>
       <c r="Q47" t="s">
         <v>26</v>
@@ -21818,40 +21882,40 @@
         <v>52</v>
       </c>
       <c r="E48" t="n">
-        <v>34349</v>
+        <v>2299</v>
       </c>
       <c r="F48" t="n">
-        <v>34349</v>
+        <v>2299</v>
       </c>
       <c r="G48" t="n">
-        <v>34349</v>
+        <v>2299</v>
       </c>
       <c r="H48" t="n">
-        <v>0.567958596514435</v>
+        <v>0.442540904716073</v>
       </c>
       <c r="I48" t="n">
-        <v>0.568644979720222</v>
+        <v>0.442540904716073</v>
       </c>
       <c r="J48" t="n">
-        <v>0.567958596514435</v>
+        <v>0.442540904716073</v>
       </c>
       <c r="K48" t="n">
-        <v>1312.80925282674</v>
+        <v>457.796731983748</v>
       </c>
       <c r="L48" t="n">
-        <v>1312.80925282674</v>
+        <v>457.796731983748</v>
       </c>
       <c r="M48" t="n">
-        <v>1312.80925282674</v>
+        <v>457.796731983748</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0160970797145522</v>
+        <v>0.0628996777921312</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0160566645145478</v>
+        <v>0.0628996777921312</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0160970797145522</v>
+        <v>0.0628996777921312</v>
       </c>
       <c r="Q48" t="s">
         <v>26</v>
@@ -21880,40 +21944,40 @@
         <v>52</v>
       </c>
       <c r="E49" t="n">
-        <v>43227</v>
+        <v>34349</v>
       </c>
       <c r="F49" t="n">
-        <v>43227</v>
+        <v>34349</v>
       </c>
       <c r="G49" t="n">
-        <v>43227</v>
+        <v>34349</v>
       </c>
       <c r="H49" t="n">
-        <v>0.50793744051326</v>
+        <v>0.567958596514435</v>
       </c>
       <c r="I49" t="n">
-        <v>0.508672628853848</v>
+        <v>0.568644979720222</v>
       </c>
       <c r="J49" t="n">
-        <v>0.50793744051326</v>
+        <v>0.567958596514435</v>
       </c>
       <c r="K49" t="n">
-        <v>1519.97879829498</v>
+        <v>1312.80925282674</v>
       </c>
       <c r="L49" t="n">
-        <v>1519.97879829498</v>
+        <v>1312.80925282674</v>
       </c>
       <c r="M49" t="n">
-        <v>1519.97879829498</v>
+        <v>1312.80925282674</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0144146410273988</v>
+        <v>0.0160970797145522</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0143872832919444</v>
+        <v>0.0160566645145478</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0144146410273988</v>
+        <v>0.0160970797145522</v>
       </c>
       <c r="Q49" t="s">
         <v>26</v>
@@ -22432,56 +22496,26 @@
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
         <v>52</v>
       </c>
-      <c r="E58" t="n">
-        <v>219</v>
-      </c>
-      <c r="F58" t="n">
-        <v>219</v>
-      </c>
-      <c r="G58" t="n">
-        <v>219</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.384885764499121</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.384885764499121</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.384885764499121</v>
-      </c>
-      <c r="K58" t="n">
-        <v>130.865410704089</v>
-      </c>
-      <c r="L58" t="n">
-        <v>130.865410704089</v>
-      </c>
-      <c r="M58" t="n">
-        <v>130.865410704089</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.183116547771441</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.183116547771441</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.183116547771441</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>30</v>
-      </c>
-      <c r="R58" t="s">
-        <v>30</v>
-      </c>
-      <c r="S58" t="s">
-        <v>30</v>
-      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
       <c r="T58" t="s">
         <v>24</v>
       </c>
@@ -22494,55 +22528,55 @@
         <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
         <v>52</v>
       </c>
       <c r="E59" t="n">
-        <v>1554</v>
+        <v>219</v>
       </c>
       <c r="F59" t="n">
-        <v>1554</v>
+        <v>219</v>
       </c>
       <c r="G59" t="n">
-        <v>1554</v>
+        <v>219</v>
       </c>
       <c r="H59" t="n">
-        <v>0.455852156057495</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="I59" t="n">
-        <v>0.455852156057495</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="J59" t="n">
-        <v>0.455852156057495</v>
+        <v>0.384885764499121</v>
       </c>
       <c r="K59" t="n">
-        <v>398.852461461315</v>
+        <v>130.865410704089</v>
       </c>
       <c r="L59" t="n">
-        <v>398.852461461315</v>
+        <v>130.865410704089</v>
       </c>
       <c r="M59" t="n">
-        <v>398.852461461315</v>
+        <v>130.865410704089</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="O59" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.183116547771441</v>
       </c>
       <c r="Q59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T59" t="s">
         <v>24</v>
@@ -22556,46 +22590,46 @@
         <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
         <v>52</v>
       </c>
       <c r="E60" t="n">
-        <v>31936</v>
+        <v>39387</v>
       </c>
       <c r="F60" t="n">
-        <v>31936</v>
+        <v>39374</v>
       </c>
       <c r="G60" t="n">
-        <v>31936</v>
+        <v>39387</v>
       </c>
       <c r="H60" t="n">
-        <v>0.568762243989314</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="I60" t="n">
-        <v>0.569005452018672</v>
+        <v>0.546489194853502</v>
       </c>
       <c r="J60" t="n">
-        <v>0.568762243989314</v>
+        <v>0.545662353495331</v>
       </c>
       <c r="K60" t="n">
-        <v>1583.12354872535</v>
+        <v>1809.53540454</v>
       </c>
       <c r="L60" t="n">
-        <v>1583.12354872535</v>
+        <v>1805.82339111519</v>
       </c>
       <c r="M60" t="n">
-        <v>1583.12354872535</v>
+        <v>1809.53540454</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0211868506395508</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0211536420417412</v>
+        <v>0.0194057161155801</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0211868506395508</v>
+        <v>0.0196297044202006</v>
       </c>
       <c r="Q60" t="s">
         <v>26</v>
@@ -22618,55 +22652,55 @@
         <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
         <v>52</v>
       </c>
       <c r="E61" t="n">
-        <v>39387</v>
+        <v>1554</v>
       </c>
       <c r="F61" t="n">
-        <v>39374</v>
+        <v>1554</v>
       </c>
       <c r="G61" t="n">
-        <v>39387</v>
+        <v>1554</v>
       </c>
       <c r="H61" t="n">
-        <v>0.545662353495331</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="I61" t="n">
-        <v>0.546489194853502</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="J61" t="n">
-        <v>0.545662353495331</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="K61" t="n">
-        <v>1809.53540454</v>
+        <v>398.852461461315</v>
       </c>
       <c r="L61" t="n">
-        <v>1805.82339111519</v>
+        <v>398.852461461315</v>
       </c>
       <c r="M61" t="n">
-        <v>1809.53540454</v>
+        <v>398.852461461315</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0194057161155801</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="Q61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T61" t="s">
         <v>24</v>
@@ -22680,55 +22714,55 @@
         <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
         <v>52</v>
       </c>
       <c r="E62" t="n">
-        <v>1554</v>
+        <v>31936</v>
       </c>
       <c r="F62" t="n">
-        <v>1554</v>
+        <v>31936</v>
       </c>
       <c r="G62" t="n">
-        <v>1554</v>
+        <v>31936</v>
       </c>
       <c r="H62" t="n">
-        <v>0.455852156057495</v>
+        <v>0.568762243989314</v>
       </c>
       <c r="I62" t="n">
-        <v>0.455852156057495</v>
+        <v>0.569005452018672</v>
       </c>
       <c r="J62" t="n">
-        <v>0.455852156057495</v>
+        <v>0.568762243989314</v>
       </c>
       <c r="K62" t="n">
-        <v>398.852461461315</v>
+        <v>1583.12354872535</v>
       </c>
       <c r="L62" t="n">
-        <v>398.852461461315</v>
+        <v>1583.12354872535</v>
       </c>
       <c r="M62" t="n">
-        <v>398.852461461315</v>
+        <v>1583.12354872535</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.0211868506395508</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.0211536420417412</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0726113735226537</v>
+        <v>0.0211868506395508</v>
       </c>
       <c r="Q62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T62" t="s">
         <v>24</v>
@@ -22742,55 +22776,55 @@
         <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
         <v>52</v>
       </c>
       <c r="E63" t="n">
-        <v>37833</v>
+        <v>1554</v>
       </c>
       <c r="F63" t="n">
-        <v>37820</v>
+        <v>1554</v>
       </c>
       <c r="G63" t="n">
-        <v>37833</v>
+        <v>1554</v>
       </c>
       <c r="H63" t="n">
-        <v>0.550114143631949</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="I63" t="n">
-        <v>0.550990675990676</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="J63" t="n">
-        <v>0.550114143631949</v>
+        <v>0.455852156057495</v>
       </c>
       <c r="K63" t="n">
-        <v>1816.67211837263</v>
+        <v>398.852461461315</v>
       </c>
       <c r="L63" t="n">
-        <v>1812.88374167788</v>
+        <v>398.852461461315</v>
       </c>
       <c r="M63" t="n">
-        <v>1816.67211837263</v>
+        <v>398.852461461315</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0206838997758817</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0204756514200509</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0206838997758817</v>
+        <v>0.0726113735226537</v>
       </c>
       <c r="Q63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T63" t="s">
         <v>24</v>
@@ -22804,46 +22838,46 @@
         <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
         <v>52</v>
       </c>
       <c r="E64" t="n">
-        <v>39387</v>
+        <v>37833</v>
       </c>
       <c r="F64" t="n">
-        <v>39374</v>
+        <v>37820</v>
       </c>
       <c r="G64" t="n">
-        <v>39387</v>
+        <v>37833</v>
       </c>
       <c r="H64" t="n">
-        <v>0.545662353495331</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="I64" t="n">
-        <v>0.546489194853502</v>
+        <v>0.550990675990676</v>
       </c>
       <c r="J64" t="n">
-        <v>0.545662353495331</v>
+        <v>0.550114143631949</v>
       </c>
       <c r="K64" t="n">
-        <v>1809.53540454</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="L64" t="n">
-        <v>1805.82339111519</v>
+        <v>1812.88374167788</v>
       </c>
       <c r="M64" t="n">
-        <v>1809.53540454</v>
+        <v>1816.67211837263</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0194057161155801</v>
+        <v>0.0204756514200509</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0196297044202006</v>
+        <v>0.0206838997758817</v>
       </c>
       <c r="Q64" t="s">
         <v>26</v>
@@ -22866,57 +22900,119 @@
         <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>52</v>
       </c>
       <c r="E65" t="n">
+        <v>39387</v>
+      </c>
+      <c r="F65" t="n">
+        <v>39374</v>
+      </c>
+      <c r="G65" t="n">
+        <v>39387</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.545662353495331</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.546489194853502</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.545662353495331</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1809.53540454</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1805.82339111519</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1809.53540454</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0196297044202006</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0194057161155801</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.0196297044202006</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>26</v>
+      </c>
+      <c r="R65" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65" t="s">
+        <v>26</v>
+      </c>
+      <c r="T65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" t="n">
         <v>7451</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F66" t="n">
         <v>7438</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G66" t="n">
         <v>7451</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H66" t="n">
         <v>0.464757984031936</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I66" t="n">
         <v>0.467123029579853</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J66" t="n">
         <v>0.464757984031936</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K66" t="n">
         <v>903.529783524041</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L66" t="n">
         <v>900.154160944113</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M66" t="n">
         <v>903.529783524041</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N66" t="n">
         <v>0.0373840028183127</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O66" t="n">
         <v>0.0364220347435384</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P66" t="n">
         <v>0.0373840028183127</v>
       </c>
-      <c r="Q65" t="s">
-        <v>26</v>
-      </c>
-      <c r="R65" t="s">
-        <v>26</v>
-      </c>
-      <c r="S65" t="s">
-        <v>26</v>
-      </c>
-      <c r="T65" t="s">
+      <c r="Q66" t="s">
+        <v>26</v>
+      </c>
+      <c r="R66" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T66" t="s">
         <v>24</v>
       </c>
     </row>
@@ -23382,40 +23478,40 @@
         <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>38084</v>
+        <v>829150</v>
       </c>
       <c r="F8" t="n">
-        <v>12024</v>
+        <v>829083</v>
       </c>
       <c r="G8" t="n">
-        <v>11312</v>
+        <v>829150</v>
       </c>
       <c r="H8" t="n">
-        <v>0.579356507187952</v>
+        <v>0.676343673782353</v>
       </c>
       <c r="I8" t="n">
-        <v>0.531400539178857</v>
+        <v>0.676359088695329</v>
       </c>
       <c r="J8" t="n">
-        <v>0.555462803830101</v>
+        <v>0.676343673782353</v>
       </c>
       <c r="K8" t="n">
-        <v>1707.53313760817</v>
+        <v>7216.77150203564</v>
       </c>
       <c r="L8" t="n">
-        <v>1088.35573239693</v>
+        <v>7220.51463434957</v>
       </c>
       <c r="M8" t="n">
-        <v>998.978310963256</v>
+        <v>7216.77150203564</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0185342065852263</v>
+        <v>0.00431158147079006</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0362820764610204</v>
+        <v>0.00431465110000509</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0371062092769635</v>
+        <v>0.00431158147079006</v>
       </c>
       <c r="Q8" t="s">
         <v>26</v>
@@ -23444,40 +23540,40 @@
         <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>582438</v>
+        <v>38084</v>
       </c>
       <c r="F9" t="n">
-        <v>490555</v>
+        <v>12024</v>
       </c>
       <c r="G9" t="n">
-        <v>479146</v>
+        <v>11312</v>
       </c>
       <c r="H9" t="n">
-        <v>0.733659074848749</v>
+        <v>0.579356507187952</v>
       </c>
       <c r="I9" t="n">
-        <v>0.748327701800819</v>
+        <v>0.531400539178857</v>
       </c>
       <c r="J9" t="n">
-        <v>0.75317526188051</v>
+        <v>0.555462803830101</v>
       </c>
       <c r="K9" t="n">
-        <v>5780.97019862745</v>
+        <v>1707.53313760817</v>
       </c>
       <c r="L9" t="n">
-        <v>4942.4094807739</v>
+        <v>1088.35573239693</v>
       </c>
       <c r="M9" t="n">
-        <v>4883.78179239025</v>
+        <v>998.978310963256</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00513552649232297</v>
+        <v>0.0185342065852263</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00517997009221044</v>
+        <v>0.0362820764610204</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00513371417759385</v>
+        <v>0.0371062092769635</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
@@ -23506,40 +23602,40 @@
         <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>829150</v>
+        <v>582438</v>
       </c>
       <c r="F10" t="n">
-        <v>829083</v>
+        <v>490555</v>
       </c>
       <c r="G10" t="n">
-        <v>829150</v>
+        <v>479146</v>
       </c>
       <c r="H10" t="n">
-        <v>0.676343673782353</v>
+        <v>0.733659074848749</v>
       </c>
       <c r="I10" t="n">
-        <v>0.676359088695329</v>
+        <v>0.748327701800819</v>
       </c>
       <c r="J10" t="n">
-        <v>0.676343673782353</v>
+        <v>0.75317526188051</v>
       </c>
       <c r="K10" t="n">
-        <v>7216.77150203564</v>
+        <v>5780.97019862745</v>
       </c>
       <c r="L10" t="n">
-        <v>7220.51463434957</v>
+        <v>4942.4094807739</v>
       </c>
       <c r="M10" t="n">
-        <v>7216.77150203564</v>
+        <v>4883.78179239025</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00431158147079006</v>
+        <v>0.00513552649232297</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00431465110000509</v>
+        <v>0.00517997009221044</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00431158147079006</v>
+        <v>0.00513371417759385</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
@@ -24292,40 +24388,40 @@
         <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>17162</v>
+        <v>415040</v>
       </c>
       <c r="F23" t="n">
-        <v>5476</v>
+        <v>414998</v>
       </c>
       <c r="G23" t="n">
-        <v>5126</v>
+        <v>415040</v>
       </c>
       <c r="H23" t="n">
-        <v>0.537572435395458</v>
+        <v>0.645808793667638</v>
       </c>
       <c r="I23" t="n">
-        <v>0.514661654135338</v>
+        <v>0.645845945546365</v>
       </c>
       <c r="J23" t="n">
-        <v>0.533735943356935</v>
+        <v>0.645808793667638</v>
       </c>
       <c r="K23" t="n">
-        <v>1161.73785321603</v>
+        <v>4681.97936653532</v>
       </c>
       <c r="L23" t="n">
-        <v>796.002139999479</v>
+        <v>4680.78666842391</v>
       </c>
       <c r="M23" t="n">
-        <v>740.323564400222</v>
+        <v>4681.97936653532</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0301034581210073</v>
+        <v>0.00587309302530072</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0579712491106331</v>
+        <v>0.00587152730530649</v>
       </c>
       <c r="P23" t="n">
-        <v>0.056795974237296</v>
+        <v>0.00587309302530072</v>
       </c>
       <c r="Q23" t="s">
         <v>26</v>
@@ -24354,40 +24450,40 @@
         <v>52</v>
       </c>
       <c r="E24" t="n">
-        <v>273623</v>
+        <v>17162</v>
       </c>
       <c r="F24" t="n">
-        <v>228100</v>
+        <v>5476</v>
       </c>
       <c r="G24" t="n">
-        <v>223822</v>
+        <v>5126</v>
       </c>
       <c r="H24" t="n">
-        <v>0.713235984109937</v>
+        <v>0.537572435395458</v>
       </c>
       <c r="I24" t="n">
-        <v>0.732940889168798</v>
+        <v>0.514661654135338</v>
       </c>
       <c r="J24" t="n">
-        <v>0.736012048628581</v>
+        <v>0.533735943356935</v>
       </c>
       <c r="K24" t="n">
-        <v>3501.63101872328</v>
+        <v>1161.73785321603</v>
       </c>
       <c r="L24" t="n">
-        <v>2858.80240349587</v>
+        <v>796.002139999479</v>
       </c>
       <c r="M24" t="n">
-        <v>2846.58473521165</v>
+        <v>740.323564400222</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00712822845539553</v>
+        <v>0.0301034581210073</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00769222567745673</v>
+        <v>0.0579712491106331</v>
       </c>
       <c r="P24" t="n">
-        <v>0.00776891718295308</v>
+        <v>0.056795974237296</v>
       </c>
       <c r="Q24" t="s">
         <v>26</v>
@@ -24416,40 +24512,40 @@
         <v>52</v>
       </c>
       <c r="E25" t="n">
-        <v>415040</v>
+        <v>273623</v>
       </c>
       <c r="F25" t="n">
-        <v>414998</v>
+        <v>228100</v>
       </c>
       <c r="G25" t="n">
-        <v>415040</v>
+        <v>223822</v>
       </c>
       <c r="H25" t="n">
-        <v>0.645808793667638</v>
+        <v>0.713235984109937</v>
       </c>
       <c r="I25" t="n">
-        <v>0.645845945546365</v>
+        <v>0.732940889168798</v>
       </c>
       <c r="J25" t="n">
-        <v>0.645808793667638</v>
+        <v>0.736012048628581</v>
       </c>
       <c r="K25" t="n">
-        <v>4681.97936653532</v>
+        <v>3501.63101872328</v>
       </c>
       <c r="L25" t="n">
-        <v>4680.78666842391</v>
+        <v>2858.80240349587</v>
       </c>
       <c r="M25" t="n">
-        <v>4681.97936653532</v>
+        <v>2846.58473521165</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00587309302530072</v>
+        <v>0.00712822845539553</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00587152730530649</v>
+        <v>0.00769222567745673</v>
       </c>
       <c r="P25" t="n">
-        <v>0.00587309302530072</v>
+        <v>0.00776891718295308</v>
       </c>
       <c r="Q25" t="s">
         <v>26</v>
@@ -25202,40 +25298,40 @@
         <v>52</v>
       </c>
       <c r="E38" t="n">
-        <v>2370</v>
+        <v>60291</v>
       </c>
       <c r="F38" t="n">
-        <v>799</v>
+        <v>60291</v>
       </c>
       <c r="G38" t="n">
-        <v>773</v>
+        <v>60291</v>
       </c>
       <c r="H38" t="n">
-        <v>0.568345323741007</v>
+        <v>0.735112660944206</v>
       </c>
       <c r="I38" t="n">
-        <v>0.52462245567958</v>
+        <v>0.735112660944206</v>
       </c>
       <c r="J38" t="n">
-        <v>0.558526011560694</v>
+        <v>0.735112660944206</v>
       </c>
       <c r="K38" t="n">
-        <v>317.828091173121</v>
+        <v>1473.38748192728</v>
       </c>
       <c r="L38" t="n">
-        <v>189.873906771046</v>
+        <v>1473.38748192728</v>
       </c>
       <c r="M38" t="n">
-        <v>187.389256395611</v>
+        <v>1473.38748192728</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0632162462825805</v>
+        <v>0.0142670278424646</v>
       </c>
       <c r="O38" t="n">
-        <v>0.107098370565685</v>
+        <v>0.0142670278424646</v>
       </c>
       <c r="P38" t="n">
-        <v>0.11371306243074</v>
+        <v>0.0142670278424646</v>
       </c>
       <c r="Q38" t="s">
         <v>26</v>
@@ -25264,40 +25360,40 @@
         <v>52</v>
       </c>
       <c r="E39" t="n">
-        <v>50241</v>
+        <v>2370</v>
       </c>
       <c r="F39" t="n">
-        <v>43009</v>
+        <v>799</v>
       </c>
       <c r="G39" t="n">
-        <v>41904</v>
+        <v>773</v>
       </c>
       <c r="H39" t="n">
-        <v>0.77609058329214</v>
+        <v>0.568345323741007</v>
       </c>
       <c r="I39" t="n">
-        <v>0.782109799785419</v>
+        <v>0.52462245567958</v>
       </c>
       <c r="J39" t="n">
-        <v>0.788766329104393</v>
+        <v>0.558526011560694</v>
       </c>
       <c r="K39" t="n">
-        <v>1365.54951599484</v>
+        <v>317.828091173121</v>
       </c>
       <c r="L39" t="n">
-        <v>1434.85722601937</v>
+        <v>189.873906771046</v>
       </c>
       <c r="M39" t="n">
-        <v>1368.95848397787</v>
+        <v>187.389256395611</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0169516233216178</v>
+        <v>0.0632162462825805</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0178374789636323</v>
+        <v>0.107098370565685</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0173281132053233</v>
+        <v>0.11371306243074</v>
       </c>
       <c r="Q39" t="s">
         <v>26</v>
@@ -25326,40 +25422,40 @@
         <v>52</v>
       </c>
       <c r="E40" t="n">
-        <v>60291</v>
+        <v>50241</v>
       </c>
       <c r="F40" t="n">
-        <v>60291</v>
+        <v>43009</v>
       </c>
       <c r="G40" t="n">
-        <v>60291</v>
+        <v>41904</v>
       </c>
       <c r="H40" t="n">
-        <v>0.735112660944206</v>
+        <v>0.77609058329214</v>
       </c>
       <c r="I40" t="n">
-        <v>0.735112660944206</v>
+        <v>0.782109799785419</v>
       </c>
       <c r="J40" t="n">
-        <v>0.735112660944206</v>
+        <v>0.788766329104393</v>
       </c>
       <c r="K40" t="n">
-        <v>1473.38748192728</v>
+        <v>1365.54951599484</v>
       </c>
       <c r="L40" t="n">
-        <v>1473.38748192728</v>
+        <v>1434.85722601937</v>
       </c>
       <c r="M40" t="n">
-        <v>1473.38748192728</v>
+        <v>1368.95848397787</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0142670278424646</v>
+        <v>0.0169516233216178</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0142670278424646</v>
+        <v>0.0178374789636323</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0142670278424646</v>
+        <v>0.0173281132053233</v>
       </c>
       <c r="Q40" t="s">
         <v>26</v>
@@ -26112,40 +26208,40 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>10936</v>
+        <v>180761</v>
       </c>
       <c r="F53" t="n">
-        <v>3020</v>
+        <v>180736</v>
       </c>
       <c r="G53" t="n">
-        <v>2818</v>
+        <v>180761</v>
       </c>
       <c r="H53" t="n">
-        <v>0.583253333333333</v>
+        <v>0.690977133202346</v>
       </c>
       <c r="I53" t="n">
-        <v>0.464973056197075</v>
+        <v>0.690947598603853</v>
       </c>
       <c r="J53" t="n">
-        <v>0.495603236018291</v>
+        <v>0.690977133202346</v>
       </c>
       <c r="K53" t="n">
-        <v>1131.13607892961</v>
+        <v>2666.91702717881</v>
       </c>
       <c r="L53" t="n">
-        <v>540.656597151787</v>
+        <v>2667.7389306609</v>
       </c>
       <c r="M53" t="n">
-        <v>505.749491530886</v>
+        <v>2666.91702717881</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0413064543501138</v>
+        <v>0.00813933248704199</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0633528326772123</v>
+        <v>0.00814217060961465</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0722201027808078</v>
+        <v>0.00813933248704199</v>
       </c>
       <c r="Q53" t="s">
         <v>26</v>
@@ -26174,40 +26270,40 @@
         <v>52</v>
       </c>
       <c r="E54" t="n">
-        <v>133736</v>
+        <v>10936</v>
       </c>
       <c r="F54" t="n">
-        <v>111965</v>
+        <v>3020</v>
       </c>
       <c r="G54" t="n">
-        <v>108663</v>
+        <v>2818</v>
       </c>
       <c r="H54" t="n">
-        <v>0.745874256139118</v>
+        <v>0.583253333333333</v>
       </c>
       <c r="I54" t="n">
-        <v>0.758108199607285</v>
+        <v>0.464973056197075</v>
       </c>
       <c r="J54" t="n">
-        <v>0.765291677524315</v>
+        <v>0.495603236018291</v>
       </c>
       <c r="K54" t="n">
-        <v>2094.95926486889</v>
+        <v>1131.13607892961</v>
       </c>
       <c r="L54" t="n">
-        <v>1959.52010568787</v>
+        <v>540.656597151787</v>
       </c>
       <c r="M54" t="n">
-        <v>1962.15679988247</v>
+        <v>505.749491530886</v>
       </c>
       <c r="N54" t="n">
-        <v>0.00935401935272927</v>
+        <v>0.0413064543501138</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0098523680730598</v>
+        <v>0.0633528326772123</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0101304697597472</v>
+        <v>0.0722201027808078</v>
       </c>
       <c r="Q54" t="s">
         <v>26</v>
@@ -26236,40 +26332,40 @@
         <v>52</v>
       </c>
       <c r="E55" t="n">
-        <v>180761</v>
+        <v>133736</v>
       </c>
       <c r="F55" t="n">
-        <v>180736</v>
+        <v>111965</v>
       </c>
       <c r="G55" t="n">
-        <v>180761</v>
+        <v>108663</v>
       </c>
       <c r="H55" t="n">
-        <v>0.690977133202346</v>
+        <v>0.745874256139118</v>
       </c>
       <c r="I55" t="n">
-        <v>0.690947598603853</v>
+        <v>0.758108199607285</v>
       </c>
       <c r="J55" t="n">
-        <v>0.690977133202346</v>
+        <v>0.765291677524315</v>
       </c>
       <c r="K55" t="n">
-        <v>2666.91702717881</v>
+        <v>2094.95926486889</v>
       </c>
       <c r="L55" t="n">
-        <v>2667.7389306609</v>
+        <v>1959.52010568787</v>
       </c>
       <c r="M55" t="n">
-        <v>2666.91702717881</v>
+        <v>1962.15679988247</v>
       </c>
       <c r="N55" t="n">
-        <v>0.00813933248704199</v>
+        <v>0.00935401935272927</v>
       </c>
       <c r="O55" t="n">
-        <v>0.00814217060961465</v>
+        <v>0.0098523680730598</v>
       </c>
       <c r="P55" t="n">
-        <v>0.00813933248704199</v>
+        <v>0.0101304697597472</v>
       </c>
       <c r="Q55" t="s">
         <v>26</v>
@@ -27022,40 +27118,40 @@
         <v>52</v>
       </c>
       <c r="E68" t="n">
-        <v>7616</v>
+        <v>173058</v>
       </c>
       <c r="F68" t="n">
-        <v>2729</v>
+        <v>173058</v>
       </c>
       <c r="G68" t="n">
-        <v>2595</v>
+        <v>173058</v>
       </c>
       <c r="H68" t="n">
-        <v>0.699357208448118</v>
+        <v>0.722143170105781</v>
       </c>
       <c r="I68" t="n">
-        <v>0.687578735197783</v>
+        <v>0.722143170105781</v>
       </c>
       <c r="J68" t="n">
-        <v>0.703061500948252</v>
+        <v>0.722143170105781</v>
       </c>
       <c r="K68" t="n">
-        <v>762.493965956453</v>
+        <v>2899.96858243456</v>
       </c>
       <c r="L68" t="n">
-        <v>539.057614818444</v>
+        <v>2899.96858243456</v>
       </c>
       <c r="M68" t="n">
-        <v>535.172883879593</v>
+        <v>2899.96858243456</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0387834571797512</v>
+        <v>0.00817356793146456</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0681236877683524</v>
+        <v>0.00817356793146456</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0701202060712853</v>
+        <v>0.00817356793146456</v>
       </c>
       <c r="Q68" t="s">
         <v>26</v>
@@ -27084,40 +27180,40 @@
         <v>52</v>
       </c>
       <c r="E69" t="n">
-        <v>124838</v>
+        <v>7616</v>
       </c>
       <c r="F69" t="n">
-        <v>107481</v>
+        <v>2729</v>
       </c>
       <c r="G69" t="n">
-        <v>104757</v>
+        <v>2595</v>
       </c>
       <c r="H69" t="n">
-        <v>0.751095013477089</v>
+        <v>0.699357208448118</v>
       </c>
       <c r="I69" t="n">
-        <v>0.758821535985089</v>
+        <v>0.687578735197783</v>
       </c>
       <c r="J69" t="n">
-        <v>0.764917635375898</v>
+        <v>0.703061500948252</v>
       </c>
       <c r="K69" t="n">
-        <v>2327.65291155597</v>
+        <v>762.493965956453</v>
       </c>
       <c r="L69" t="n">
-        <v>1936.966230138</v>
+        <v>539.057614818444</v>
       </c>
       <c r="M69" t="n">
-        <v>1962.06584564013</v>
+        <v>535.172883879593</v>
       </c>
       <c r="N69" t="n">
-        <v>0.00969946616300276</v>
+        <v>0.0387834571797512</v>
       </c>
       <c r="O69" t="n">
-        <v>0.00934838384070301</v>
+        <v>0.0681236877683524</v>
       </c>
       <c r="P69" t="n">
-        <v>0.00964176922865296</v>
+        <v>0.0701202060712853</v>
       </c>
       <c r="Q69" t="s">
         <v>26</v>
@@ -27146,40 +27242,40 @@
         <v>52</v>
       </c>
       <c r="E70" t="n">
-        <v>173058</v>
+        <v>124838</v>
       </c>
       <c r="F70" t="n">
-        <v>173058</v>
+        <v>107481</v>
       </c>
       <c r="G70" t="n">
-        <v>173058</v>
+        <v>104757</v>
       </c>
       <c r="H70" t="n">
-        <v>0.722143170105781</v>
+        <v>0.751095013477089</v>
       </c>
       <c r="I70" t="n">
-        <v>0.722143170105781</v>
+        <v>0.758821535985089</v>
       </c>
       <c r="J70" t="n">
-        <v>0.722143170105781</v>
+        <v>0.764917635375898</v>
       </c>
       <c r="K70" t="n">
-        <v>2899.96858243456</v>
+        <v>2327.65291155597</v>
       </c>
       <c r="L70" t="n">
-        <v>2899.96858243456</v>
+        <v>1936.966230138</v>
       </c>
       <c r="M70" t="n">
-        <v>2899.96858243456</v>
+        <v>1962.06584564013</v>
       </c>
       <c r="N70" t="n">
-        <v>0.00817356793146456</v>
+        <v>0.00969946616300276</v>
       </c>
       <c r="O70" t="n">
-        <v>0.00817356793146456</v>
+        <v>0.00934838384070301</v>
       </c>
       <c r="P70" t="n">
-        <v>0.00817356793146456</v>
+        <v>0.00964176922865296</v>
       </c>
       <c r="Q70" t="s">
         <v>26</v>
